--- a/unit interface.xlsx
+++ b/unit interface.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olive\Desktop\pc project\rlpc\AX08-PC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC4218DD-059B-467D-9BF4-974EB8C203AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E60DA648-113A-4F86-90AD-F3D4D6DE47F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="59">
   <si>
     <t>Unit</t>
   </si>
@@ -163,6 +163,45 @@
   </si>
   <si>
     <t>data</t>
+  </si>
+  <si>
+    <t>PC0_WRITEA</t>
+  </si>
+  <si>
+    <t>PC1_WRITEA</t>
+  </si>
+  <si>
+    <t>PC0_WRITEB</t>
+  </si>
+  <si>
+    <t>PC1_WRITEB</t>
+  </si>
+  <si>
+    <t>Direction</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>out</t>
+  </si>
+  <si>
+    <t>PAGE_WRITEA</t>
+  </si>
+  <si>
+    <t>PAGE_WRITEB</t>
+  </si>
+  <si>
+    <t>pseudoregister control</t>
+  </si>
+  <si>
+    <t>write control PC0</t>
+  </si>
+  <si>
+    <t>write control PC1</t>
+  </si>
+  <si>
+    <t>write control PAGE</t>
   </si>
 </sst>
 </file>
@@ -200,7 +239,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -238,27 +277,75 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -539,378 +626,556 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F36" sqref="F36"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.33203125" customWidth="1"/>
     <col min="2" max="2" width="13.3984375" customWidth="1"/>
-    <col min="3" max="3" width="14.53125" customWidth="1"/>
+    <col min="3" max="3" width="15.46484375" customWidth="1"/>
     <col min="4" max="4" width="13.73046875" customWidth="1"/>
-    <col min="5" max="5" width="10.53125" customWidth="1"/>
-    <col min="6" max="6" width="49.1328125" customWidth="1"/>
+    <col min="5" max="5" width="8.46484375" customWidth="1"/>
+    <col min="6" max="6" width="10.53125" customWidth="1"/>
+    <col min="7" max="7" width="49.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="3"/>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" s="5"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="3"/>
+      <c r="E3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" s="5"/>
       <c r="B4" s="4"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="5" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="3"/>
+      <c r="E4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" s="5"/>
       <c r="B5" s="4"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="5" t="s">
+      <c r="C5" s="5"/>
+      <c r="D5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="3"/>
+      <c r="E5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" s="5"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="5" t="s">
+      <c r="C6" s="5"/>
+      <c r="D6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="3"/>
+      <c r="E6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" s="5"/>
       <c r="B7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="3"/>
+      <c r="E7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8" s="5"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="3"/>
+      <c r="E8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" s="5"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="5" t="s">
+      <c r="C9" s="5"/>
+      <c r="D9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="3"/>
+      <c r="E9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10" s="5"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="5" t="s">
+      <c r="C10" s="5"/>
+      <c r="D10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="3"/>
+      <c r="E10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" s="5"/>
       <c r="B11" s="4"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="5" t="s">
+      <c r="C11" s="5"/>
+      <c r="D11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="3"/>
+      <c r="E11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12" s="5"/>
       <c r="B12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="3"/>
+      <c r="E12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13" s="5"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="3"/>
+      <c r="E13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14" s="5"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="5" t="s">
+      <c r="C14" s="5"/>
+      <c r="D14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="3"/>
+      <c r="E14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15" s="5"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="5" t="s">
+      <c r="C15" s="5"/>
+      <c r="D15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="5"/>
-    </row>
-    <row r="16" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="3"/>
+      <c r="E15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16" s="5"/>
       <c r="B16" s="4"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="5" t="s">
+      <c r="C16" s="5"/>
+      <c r="D16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="5"/>
-    </row>
-    <row r="17" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="3"/>
+      <c r="E16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A17" s="5"/>
       <c r="B17" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="5"/>
-    </row>
-    <row r="18" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="3"/>
+      <c r="E17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A18" s="5"/>
       <c r="B18" s="4"/>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="5"/>
-    </row>
-    <row r="19" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="3"/>
+      <c r="E18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A19" s="5"/>
       <c r="B19" s="4"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="5" t="s">
+      <c r="C19" s="5"/>
+      <c r="D19" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="5"/>
-    </row>
-    <row r="20" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="3"/>
+      <c r="E19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A20" s="5"/>
       <c r="B20" s="4"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="5" t="s">
+      <c r="C20" s="5"/>
+      <c r="D20" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="5"/>
-    </row>
-    <row r="21" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="3"/>
+      <c r="E20" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A21" s="5"/>
       <c r="B21" s="4"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="5" t="s">
+      <c r="C21" s="5"/>
+      <c r="D21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="5"/>
-    </row>
-    <row r="22" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="3"/>
-      <c r="B22" s="5" t="s">
+      <c r="E21" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A22" s="5"/>
+      <c r="B22" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A23" s="5"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A24" s="5"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A25" s="5"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A26" s="5"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A27" s="5"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A28" s="5"/>
+      <c r="B28" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5" t="s">
+      <c r="C28" s="2"/>
+      <c r="D28" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E28" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F22" s="5"/>
-    </row>
-    <row r="23" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="3"/>
-      <c r="B23" s="5" t="s">
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A29" s="5"/>
+      <c r="B29" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5" t="s">
+      <c r="C29" s="2"/>
+      <c r="D29" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E29" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F23" s="5"/>
-    </row>
-    <row r="24" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="3"/>
-      <c r="B24" s="5" t="s">
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A30" s="5"/>
+      <c r="B30" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5" t="s">
+      <c r="C30" s="2"/>
+      <c r="D30" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E30" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F24" s="5"/>
-    </row>
-    <row r="25" spans="1:6" s="2" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A25" s="7"/>
-      <c r="B25" s="8" t="s">
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A31" s="6"/>
+      <c r="B31" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8" t="s">
+      <c r="C31" s="3"/>
+      <c r="D31" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E31" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F31" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F25" s="8"/>
+      <c r="G31" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="13">
     <mergeCell ref="B17:B21"/>
     <mergeCell ref="C18:C21"/>
-    <mergeCell ref="A2:A25"/>
+    <mergeCell ref="A2:A31"/>
     <mergeCell ref="C3:C6"/>
     <mergeCell ref="B2:B6"/>
     <mergeCell ref="B7:B11"/>
     <mergeCell ref="C8:C11"/>
     <mergeCell ref="B12:B16"/>
     <mergeCell ref="C13:C16"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C26:C27"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/unit interface.xlsx
+++ b/unit interface.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olive\Desktop\pc project\rlpc\AX08-PC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E60DA648-113A-4F86-90AD-F3D4D6DE47F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{935BC7A5-79EB-44FE-BC48-D74F8CB2E8C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="82">
   <si>
     <t>Unit</t>
   </si>
@@ -202,6 +202,75 @@
   </si>
   <si>
     <t>write control PAGE</t>
+  </si>
+  <si>
+    <t>active low</t>
+  </si>
+  <si>
+    <t>program counter</t>
+  </si>
+  <si>
+    <t>STORE_PC_INC</t>
+  </si>
+  <si>
+    <t>PC_SOURCE_INC</t>
+  </si>
+  <si>
+    <t>PC_SOURCE_OUT</t>
+  </si>
+  <si>
+    <t>source has to be set before clock pulse</t>
+  </si>
+  <si>
+    <t>control</t>
+  </si>
+  <si>
+    <t>source select</t>
+  </si>
+  <si>
+    <t>store commands</t>
+  </si>
+  <si>
+    <t>bus OUT upper</t>
+  </si>
+  <si>
+    <t>OUT8-OUT15</t>
+  </si>
+  <si>
+    <t>bus PC</t>
+  </si>
+  <si>
+    <t>PC_B0-PC_B15</t>
+  </si>
+  <si>
+    <t>NOT_PC_SET</t>
+  </si>
+  <si>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>set control PC</t>
+  </si>
+  <si>
+    <t>set control PAGE</t>
+  </si>
+  <si>
+    <t>NOT_PAGE_SET</t>
+  </si>
+  <si>
+    <t>induces rising edge on PAGE_SET (internal)</t>
+  </si>
+  <si>
+    <t>induces rising edge on PC_SET (internal)</t>
+  </si>
+  <si>
+    <t>reset</t>
+  </si>
+  <si>
+    <t>MODE</t>
+  </si>
+  <si>
+    <t>normal operation on high, 0 to PC on low</t>
   </si>
 </sst>
 </file>
@@ -239,7 +308,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -314,15 +383,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -333,18 +422,39 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -626,11 +736,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -638,62 +748,62 @@
     <col min="1" max="1" width="17.33203125" customWidth="1"/>
     <col min="2" max="2" width="13.3984375" customWidth="1"/>
     <col min="3" max="3" width="15.46484375" customWidth="1"/>
-    <col min="4" max="4" width="13.73046875" customWidth="1"/>
+    <col min="4" max="4" width="15.265625" customWidth="1"/>
     <col min="5" max="5" width="8.46484375" customWidth="1"/>
     <col min="6" max="6" width="10.53125" customWidth="1"/>
     <col min="7" max="7" width="49.1328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" s="9" t="s">
+      <c r="E2" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="16" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" s="5"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5" t="s">
+      <c r="A3" s="8"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -708,9 +818,9 @@
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" s="5"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="8"/>
       <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
@@ -723,9 +833,9 @@
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A5" s="5"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8"/>
       <c r="D5" s="2" t="s">
         <v>10</v>
       </c>
@@ -738,9 +848,9 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6" s="5"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8"/>
       <c r="D6" s="2" t="s">
         <v>11</v>
       </c>
@@ -753,8 +863,8 @@
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A7" s="5"/>
-      <c r="B7" s="4" t="s">
+      <c r="A7" s="8"/>
+      <c r="B7" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -772,9 +882,9 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A8" s="5"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5" t="s">
+      <c r="A8" s="8"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -789,9 +899,9 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A9" s="5"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
       <c r="D9" s="2" t="s">
         <v>22</v>
       </c>
@@ -804,9 +914,9 @@
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A10" s="5"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
       <c r="D10" s="2" t="s">
         <v>23</v>
       </c>
@@ -819,9 +929,9 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A11" s="5"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
       <c r="D11" s="2" t="s">
         <v>24</v>
       </c>
@@ -834,8 +944,8 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A12" s="5"/>
-      <c r="B12" s="4" t="s">
+      <c r="A12" s="8"/>
+      <c r="B12" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -853,9 +963,9 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A13" s="5"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="5" t="s">
+      <c r="A13" s="8"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -870,9 +980,9 @@
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A14" s="5"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
       <c r="D14" s="2" t="s">
         <v>28</v>
       </c>
@@ -885,9 +995,9 @@
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A15" s="5"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
       <c r="D15" s="2" t="s">
         <v>29</v>
       </c>
@@ -900,9 +1010,9 @@
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A16" s="5"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
       <c r="D16" s="2" t="s">
         <v>30</v>
       </c>
@@ -915,8 +1025,8 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A17" s="5"/>
-      <c r="B17" s="4" t="s">
+      <c r="A17" s="8"/>
+      <c r="B17" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -934,9 +1044,9 @@
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A18" s="5"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5" t="s">
+      <c r="A18" s="8"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -951,9 +1061,9 @@
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A19" s="5"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
       <c r="D19" s="2" t="s">
         <v>34</v>
       </c>
@@ -966,9 +1076,9 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A20" s="5"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="8"/>
       <c r="D20" s="2" t="s">
         <v>35</v>
       </c>
@@ -981,9 +1091,9 @@
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A21" s="5"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="8"/>
       <c r="D21" s="2" t="s">
         <v>36</v>
       </c>
@@ -995,9 +1105,9 @@
       </c>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A22" s="5"/>
-      <c r="B22" s="11" t="s">
+    <row r="22" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="8"/>
+      <c r="B22" s="19" t="s">
         <v>55</v>
       </c>
       <c r="C22" s="11" t="s">
@@ -1010,14 +1120,14 @@
         <v>52</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A23" s="5"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="8"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="10"/>
       <c r="D23" s="2" t="s">
         <v>48</v>
       </c>
@@ -1025,13 +1135,13 @@
         <v>52</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A24" s="5"/>
-      <c r="B24" s="12"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="20"/>
       <c r="C24" s="11" t="s">
         <v>57</v>
       </c>
@@ -1042,14 +1152,14 @@
         <v>52</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A25" s="5"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="8"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="10"/>
       <c r="D25" s="2" t="s">
         <v>49</v>
       </c>
@@ -1057,13 +1167,13 @@
         <v>52</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A26" s="5"/>
-      <c r="B26" s="12"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="20"/>
       <c r="C26" s="11" t="s">
         <v>58</v>
       </c>
@@ -1074,14 +1184,14 @@
         <v>52</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A27" s="5"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="10"/>
       <c r="D27" s="2" t="s">
         <v>54</v>
       </c>
@@ -1089,90 +1199,378 @@
         <v>52</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A28" s="5"/>
-      <c r="B28" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28" s="2"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="4" t="s">
+        <v>74</v>
+      </c>
       <c r="D28" s="2" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G28" s="2"/>
+        <v>59</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A29" s="5"/>
-      <c r="B29" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" s="2"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="D29" s="2" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>52</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G29" s="2"/>
+        <v>59</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A30" s="5"/>
+      <c r="A30" s="8"/>
       <c r="B30" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A31" s="6"/>
-      <c r="B31" s="3" t="s">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A31" s="8"/>
+      <c r="B31" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A32" s="8"/>
+      <c r="B32" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A33" s="9"/>
+      <c r="B33" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3" t="s">
+      <c r="C33" s="3"/>
+      <c r="D33" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E33" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F33" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G31" s="3"/>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A34" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A35" s="22"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A36" s="22"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A37" s="22"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A38" s="22"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="22"/>
+      <c r="B39" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A40" s="22"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G40" s="2"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A41" s="22"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A42" s="22"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G42" s="2"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A43" s="22"/>
+      <c r="B43" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G43" s="2"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A44" s="22"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G44" s="2"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A45" s="22"/>
+      <c r="B45" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G45" s="2"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A46" s="22"/>
+      <c r="B46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G46" s="2"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A47" s="18"/>
+      <c r="B47" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G47" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="21">
+    <mergeCell ref="B22:B29"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="A34:A47"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="B43:B44"/>
     <mergeCell ref="B17:B21"/>
     <mergeCell ref="C18:C21"/>
-    <mergeCell ref="A2:A31"/>
+    <mergeCell ref="A2:A33"/>
     <mergeCell ref="C3:C6"/>
     <mergeCell ref="B2:B6"/>
     <mergeCell ref="B7:B11"/>
     <mergeCell ref="C8:C11"/>
     <mergeCell ref="B12:B16"/>
     <mergeCell ref="C13:C16"/>
-    <mergeCell ref="B22:B27"/>
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="C26:C27"/>

--- a/unit interface.xlsx
+++ b/unit interface.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olive\Desktop\pc project\rlpc\AX08-PC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{935BC7A5-79EB-44FE-BC48-D74F8CB2E8C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0641CB67-9BFD-476E-AAE5-AF8731A33FE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -402,7 +402,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -412,38 +412,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -453,8 +422,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -739,8 +735,8 @@
   <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K31" sqref="K31"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -778,32 +774,32 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" s="16" t="s">
+      <c r="E2" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" s="8"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8" t="s">
+      <c r="A3" s="14"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="14" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -818,9 +814,9 @@
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" s="8"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="14"/>
       <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
@@ -833,9 +829,9 @@
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A5" s="8"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="14"/>
       <c r="D5" s="2" t="s">
         <v>10</v>
       </c>
@@ -848,9 +844,9 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6" s="8"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="14"/>
       <c r="D6" s="2" t="s">
         <v>11</v>
       </c>
@@ -863,8 +859,8 @@
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A7" s="8"/>
-      <c r="B7" s="7" t="s">
+      <c r="A7" s="14"/>
+      <c r="B7" s="15" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -882,9 +878,9 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A8" s="8"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8" t="s">
+      <c r="A8" s="14"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="14" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -899,9 +895,9 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A9" s="8"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="14"/>
       <c r="D9" s="2" t="s">
         <v>22</v>
       </c>
@@ -914,9 +910,9 @@
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A10" s="8"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="14"/>
       <c r="D10" s="2" t="s">
         <v>23</v>
       </c>
@@ -929,9 +925,9 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A11" s="8"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="14"/>
       <c r="D11" s="2" t="s">
         <v>24</v>
       </c>
@@ -944,8 +940,8 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A12" s="8"/>
-      <c r="B12" s="7" t="s">
+      <c r="A12" s="14"/>
+      <c r="B12" s="15" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -963,9 +959,9 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A13" s="8"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8" t="s">
+      <c r="A13" s="14"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="14" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -980,9 +976,9 @@
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A14" s="8"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="14"/>
       <c r="D14" s="2" t="s">
         <v>28</v>
       </c>
@@ -995,9 +991,9 @@
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A15" s="8"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="14"/>
       <c r="D15" s="2" t="s">
         <v>29</v>
       </c>
@@ -1010,9 +1006,9 @@
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A16" s="8"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="14"/>
       <c r="D16" s="2" t="s">
         <v>30</v>
       </c>
@@ -1025,8 +1021,8 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A17" s="8"/>
-      <c r="B17" s="7" t="s">
+      <c r="A17" s="14"/>
+      <c r="B17" s="15" t="s">
         <v>31</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -1044,9 +1040,9 @@
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A18" s="8"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="8" t="s">
+      <c r="A18" s="14"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="14" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -1061,9 +1057,9 @@
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A19" s="8"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="8"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="14"/>
       <c r="D19" s="2" t="s">
         <v>34</v>
       </c>
@@ -1076,9 +1072,9 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A20" s="8"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="8"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="14"/>
       <c r="D20" s="2" t="s">
         <v>35</v>
       </c>
@@ -1091,9 +1087,9 @@
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A21" s="8"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="8"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="14"/>
       <c r="D21" s="2" t="s">
         <v>36</v>
       </c>
@@ -1106,11 +1102,11 @@
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="8"/>
-      <c r="B22" s="19" t="s">
+      <c r="A22" s="14"/>
+      <c r="B22" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="19" t="s">
         <v>56</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -1125,9 +1121,9 @@
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A23" s="8"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="10"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="20"/>
       <c r="D23" s="2" t="s">
         <v>48</v>
       </c>
@@ -1140,9 +1136,9 @@
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A24" s="8"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="11" t="s">
+      <c r="A24" s="14"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="19" t="s">
         <v>57</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -1157,9 +1153,9 @@
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A25" s="8"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="10"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="20"/>
       <c r="D25" s="2" t="s">
         <v>49</v>
       </c>
@@ -1172,9 +1168,9 @@
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A26" s="8"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="11" t="s">
+      <c r="A26" s="14"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="19" t="s">
         <v>58</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -1189,9 +1185,9 @@
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A27" s="8"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="10"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="20"/>
       <c r="D27" s="2" t="s">
         <v>54</v>
       </c>
@@ -1204,8 +1200,8 @@
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A28" s="8"/>
-      <c r="B28" s="20"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="9"/>
       <c r="C28" s="4" t="s">
         <v>74</v>
       </c>
@@ -1223,8 +1219,8 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A29" s="8"/>
-      <c r="B29" s="21"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="10"/>
       <c r="C29" s="4" t="s">
         <v>75</v>
       </c>
@@ -1242,7 +1238,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A30" s="8"/>
+      <c r="A30" s="14"/>
       <c r="B30" s="2" t="s">
         <v>37</v>
       </c>
@@ -1259,7 +1255,7 @@
       <c r="G30" s="2"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A31" s="8"/>
+      <c r="A31" s="14"/>
       <c r="B31" s="2" t="s">
         <v>38</v>
       </c>
@@ -1276,7 +1272,7 @@
       <c r="G31" s="2"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A32" s="8"/>
+      <c r="A32" s="14"/>
       <c r="B32" s="2" t="s">
         <v>39</v>
       </c>
@@ -1293,7 +1289,7 @@
       <c r="G32" s="2"/>
     </row>
     <row r="33" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A33" s="9"/>
+      <c r="A33" s="17"/>
       <c r="B33" s="3" t="s">
         <v>40</v>
       </c>
@@ -1310,10 +1306,10 @@
       <c r="G33" s="3"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A34" s="22" t="s">
+      <c r="A34" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="11" t="s">
         <v>65</v>
       </c>
       <c r="C34" s="5" t="s">
@@ -1333,83 +1329,83 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A35" s="22"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="8" t="s">
+      <c r="A35" s="13"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="D35" s="12" t="s">
+      <c r="D35" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E35" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F35" s="12" t="s">
+      <c r="E35" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F35" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="G35" s="12" t="s">
+      <c r="G35" s="2" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A36" s="22"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="12" t="s">
+      <c r="A36" s="13"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E36" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F36" s="12" t="s">
+      <c r="E36" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G36" s="2"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A37" s="22"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="8" t="s">
+      <c r="A37" s="13"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="D37" s="12" t="s">
+      <c r="D37" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E37" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F37" s="12" t="s">
+      <c r="E37" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F37" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G37" s="2"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A38" s="22"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="12" t="s">
+      <c r="A38" s="13"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E38" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F38" s="12" t="s">
+      <c r="E38" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F38" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G38" s="2"/>
     </row>
     <row r="39" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="22"/>
-      <c r="B39" s="7" t="s">
+      <c r="A39" s="13"/>
+      <c r="B39" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="15" t="s">
         <v>56</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E39" s="12" t="s">
+      <c r="E39" s="2" t="s">
         <v>51</v>
       </c>
       <c r="F39" s="2" t="s">
@@ -1418,13 +1414,13 @@
       <c r="G39" s="2"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A40" s="22"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
+      <c r="A40" s="13"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
       <c r="D40" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E40" s="12" t="s">
+      <c r="E40" s="2" t="s">
         <v>51</v>
       </c>
       <c r="F40" s="2" t="s">
@@ -1433,15 +1429,15 @@
       <c r="G40" s="2"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A41" s="22"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7" t="s">
+      <c r="A41" s="13"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="15" t="s">
         <v>57</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E41" s="12" t="s">
+      <c r="E41" s="2" t="s">
         <v>51</v>
       </c>
       <c r="F41" s="2" t="s">
@@ -1450,13 +1446,13 @@
       <c r="G41" s="2"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A42" s="22"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
+      <c r="A42" s="13"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
       <c r="D42" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E42" s="12" t="s">
+      <c r="E42" s="2" t="s">
         <v>51</v>
       </c>
       <c r="F42" s="2" t="s">
@@ -1465,43 +1461,43 @@
       <c r="G42" s="2"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A43" s="22"/>
-      <c r="B43" s="13" t="s">
+      <c r="A43" s="13"/>
+      <c r="B43" s="14" t="s">
         <v>37</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D43" s="12" t="s">
+      <c r="D43" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E43" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F43" s="12" t="s">
+      <c r="E43" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F43" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G43" s="2"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A44" s="22"/>
-      <c r="B44" s="13"/>
+      <c r="A44" s="13"/>
+      <c r="B44" s="14"/>
       <c r="C44" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D44" s="12" t="s">
+      <c r="D44" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E44" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F44" s="12" t="s">
+      <c r="E44" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F44" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G44" s="2"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A45" s="22"/>
+      <c r="A45" s="13"/>
       <c r="B45" s="2" t="s">
         <v>38</v>
       </c>
@@ -1518,7 +1514,7 @@
       <c r="G45" s="2"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A46" s="22"/>
+      <c r="A46" s="13"/>
       <c r="B46" s="2" t="s">
         <v>39</v>
       </c>
@@ -1535,33 +1531,24 @@
       <c r="G46" s="2"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A47" s="18"/>
+      <c r="A47" s="11"/>
       <c r="B47" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C47" s="2"/>
-      <c r="D47" s="12" t="s">
+      <c r="D47" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E47" s="12" t="s">
+      <c r="E47" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F47" s="12" t="s">
+      <c r="F47" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G47" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B22:B29"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="A34:A47"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="B43:B44"/>
     <mergeCell ref="B17:B21"/>
     <mergeCell ref="C18:C21"/>
     <mergeCell ref="A2:A33"/>
@@ -1574,6 +1561,15 @@
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="C26:C27"/>
+    <mergeCell ref="B22:B29"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="A34:A47"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="B43:B44"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/unit interface.xlsx
+++ b/unit interface.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olive\Desktop\pc project\rlpc\AX08-PC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0641CB67-9BFD-476E-AAE5-AF8731A33FE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4906AC6B-0B50-48FB-98C7-20F1677E2BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -413,6 +413,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -430,27 +451,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -774,10 +774,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -797,9 +797,9 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" s="14"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="14" t="s">
+      <c r="A3" s="9"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -814,9 +814,9 @@
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" s="14"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="14"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9"/>
       <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
@@ -829,9 +829,9 @@
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A5" s="14"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="14"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
       <c r="D5" s="2" t="s">
         <v>10</v>
       </c>
@@ -844,9 +844,9 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6" s="14"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="14"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
       <c r="D6" s="2" t="s">
         <v>11</v>
       </c>
@@ -859,8 +859,8 @@
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A7" s="14"/>
-      <c r="B7" s="15" t="s">
+      <c r="A7" s="9"/>
+      <c r="B7" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -878,9 +878,9 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A8" s="14"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="14" t="s">
+      <c r="A8" s="9"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -895,9 +895,9 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A9" s="14"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="14"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
       <c r="D9" s="2" t="s">
         <v>22</v>
       </c>
@@ -910,9 +910,9 @@
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A10" s="14"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="14"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="9"/>
       <c r="D10" s="2" t="s">
         <v>23</v>
       </c>
@@ -925,9 +925,9 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A11" s="14"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="14"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="9"/>
       <c r="D11" s="2" t="s">
         <v>24</v>
       </c>
@@ -940,8 +940,8 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A12" s="14"/>
-      <c r="B12" s="15" t="s">
+      <c r="A12" s="9"/>
+      <c r="B12" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -959,9 +959,9 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A13" s="14"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="14" t="s">
+      <c r="A13" s="9"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -976,9 +976,9 @@
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A14" s="14"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="14"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
       <c r="D14" s="2" t="s">
         <v>28</v>
       </c>
@@ -991,9 +991,9 @@
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A15" s="14"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="14"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
       <c r="D15" s="2" t="s">
         <v>29</v>
       </c>
@@ -1006,9 +1006,9 @@
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A16" s="14"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="14"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
       <c r="D16" s="2" t="s">
         <v>30</v>
       </c>
@@ -1021,8 +1021,8 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A17" s="14"/>
-      <c r="B17" s="15" t="s">
+      <c r="A17" s="9"/>
+      <c r="B17" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -1040,9 +1040,9 @@
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A18" s="14"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="14" t="s">
+      <c r="A18" s="9"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -1057,9 +1057,9 @@
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A19" s="14"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="14"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="9"/>
       <c r="D19" s="2" t="s">
         <v>34</v>
       </c>
@@ -1072,9 +1072,9 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A20" s="14"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="14"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="9"/>
       <c r="D20" s="2" t="s">
         <v>35</v>
       </c>
@@ -1087,9 +1087,9 @@
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A21" s="14"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="14"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
       <c r="D21" s="2" t="s">
         <v>36</v>
       </c>
@@ -1102,11 +1102,11 @@
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="14"/>
-      <c r="B22" s="8" t="s">
+      <c r="A22" s="9"/>
+      <c r="B22" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -1121,9 +1121,9 @@
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A23" s="14"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="20"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="14"/>
       <c r="D23" s="2" t="s">
         <v>48</v>
       </c>
@@ -1136,9 +1136,9 @@
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A24" s="14"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="19" t="s">
+      <c r="A24" s="9"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="13" t="s">
         <v>57</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -1153,9 +1153,9 @@
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A25" s="14"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="20"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="14"/>
       <c r="D25" s="2" t="s">
         <v>49</v>
       </c>
@@ -1168,9 +1168,9 @@
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A26" s="14"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="19" t="s">
+      <c r="A26" s="9"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -1185,9 +1185,9 @@
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A27" s="14"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="20"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="14"/>
       <c r="D27" s="2" t="s">
         <v>54</v>
       </c>
@@ -1200,8 +1200,8 @@
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A28" s="14"/>
-      <c r="B28" s="9"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="16"/>
       <c r="C28" s="4" t="s">
         <v>74</v>
       </c>
@@ -1219,8 +1219,8 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A29" s="14"/>
-      <c r="B29" s="10"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="17"/>
       <c r="C29" s="4" t="s">
         <v>75</v>
       </c>
@@ -1238,7 +1238,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A30" s="14"/>
+      <c r="A30" s="9"/>
       <c r="B30" s="2" t="s">
         <v>37</v>
       </c>
@@ -1255,7 +1255,7 @@
       <c r="G30" s="2"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A31" s="14"/>
+      <c r="A31" s="9"/>
       <c r="B31" s="2" t="s">
         <v>38</v>
       </c>
@@ -1272,7 +1272,7 @@
       <c r="G31" s="2"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A32" s="14"/>
+      <c r="A32" s="9"/>
       <c r="B32" s="2" t="s">
         <v>39</v>
       </c>
@@ -1289,7 +1289,7 @@
       <c r="G32" s="2"/>
     </row>
     <row r="33" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A33" s="17"/>
+      <c r="A33" s="11"/>
       <c r="B33" s="3" t="s">
         <v>40</v>
       </c>
@@ -1306,10 +1306,10 @@
       <c r="G33" s="3"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="18" t="s">
         <v>65</v>
       </c>
       <c r="C34" s="5" t="s">
@@ -1329,9 +1329,9 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A35" s="13"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="14" t="s">
+      <c r="A35" s="20"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="9" t="s">
         <v>67</v>
       </c>
       <c r="D35" s="2" t="s">
@@ -1348,9 +1348,9 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A36" s="13"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="14"/>
+      <c r="A36" s="20"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="9"/>
       <c r="D36" s="2" t="s">
         <v>61</v>
       </c>
@@ -1363,9 +1363,9 @@
       <c r="G36" s="2"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A37" s="13"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="14" t="s">
+      <c r="A37" s="20"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="9" t="s">
         <v>66</v>
       </c>
       <c r="D37" s="2" t="s">
@@ -1380,9 +1380,9 @@
       <c r="G37" s="2"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A38" s="13"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="14"/>
+      <c r="A38" s="20"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="9"/>
       <c r="D38" s="2" t="s">
         <v>63</v>
       </c>
@@ -1395,11 +1395,11 @@
       <c r="G38" s="2"/>
     </row>
     <row r="39" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="13"/>
-      <c r="B39" s="15" t="s">
+      <c r="A39" s="20"/>
+      <c r="B39" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C39" s="15" t="s">
+      <c r="C39" s="8" t="s">
         <v>56</v>
       </c>
       <c r="D39" s="2" t="s">
@@ -1414,9 +1414,9 @@
       <c r="G39" s="2"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A40" s="13"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
+      <c r="A40" s="20"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
       <c r="D40" s="2" t="s">
         <v>48</v>
       </c>
@@ -1429,9 +1429,9 @@
       <c r="G40" s="2"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A41" s="13"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="15" t="s">
+      <c r="A41" s="20"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8" t="s">
         <v>57</v>
       </c>
       <c r="D41" s="2" t="s">
@@ -1446,9 +1446,9 @@
       <c r="G41" s="2"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A42" s="13"/>
-      <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
+      <c r="A42" s="20"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
       <c r="D42" s="2" t="s">
         <v>49</v>
       </c>
@@ -1461,8 +1461,8 @@
       <c r="G42" s="2"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A43" s="13"/>
-      <c r="B43" s="14" t="s">
+      <c r="A43" s="20"/>
+      <c r="B43" s="9" t="s">
         <v>37</v>
       </c>
       <c r="C43" s="2" t="s">
@@ -1480,8 +1480,8 @@
       <c r="G43" s="2"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A44" s="13"/>
-      <c r="B44" s="14"/>
+      <c r="A44" s="20"/>
+      <c r="B44" s="9"/>
       <c r="C44" s="2" t="s">
         <v>68</v>
       </c>
@@ -1497,7 +1497,7 @@
       <c r="G44" s="2"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A45" s="13"/>
+      <c r="A45" s="20"/>
       <c r="B45" s="2" t="s">
         <v>38</v>
       </c>
@@ -1514,7 +1514,7 @@
       <c r="G45" s="2"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A46" s="13"/>
+      <c r="A46" s="20"/>
       <c r="B46" s="2" t="s">
         <v>39</v>
       </c>
@@ -1531,7 +1531,7 @@
       <c r="G46" s="2"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A47" s="11"/>
+      <c r="A47" s="18"/>
       <c r="B47" s="2" t="s">
         <v>70</v>
       </c>
@@ -1549,6 +1549,14 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="A34:A47"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="B43:B44"/>
     <mergeCell ref="B17:B21"/>
     <mergeCell ref="C18:C21"/>
     <mergeCell ref="A2:A33"/>
@@ -1562,14 +1570,6 @@
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="B22:B29"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="A34:A47"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="B43:B44"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/unit interface.xlsx
+++ b/unit interface.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olive\Desktop\pc project\rlpc\AX08-PC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4906AC6B-0B50-48FB-98C7-20F1677E2BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC2F062-9065-4949-8B1B-C0C37632E57C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="106">
   <si>
     <t>Unit</t>
   </si>
@@ -271,6 +271,78 @@
   </si>
   <si>
     <t>normal operation on high, 0 to PC on low</t>
+  </si>
+  <si>
+    <t>memory unit</t>
+  </si>
+  <si>
+    <t>OP0-OP4</t>
+  </si>
+  <si>
+    <t>OP_CD0-OP_CD2</t>
+  </si>
+  <si>
+    <t>AD_RGC0-AD_RGC2</t>
+  </si>
+  <si>
+    <t>opcode</t>
+  </si>
+  <si>
+    <t>condition</t>
+  </si>
+  <si>
+    <t>MODEB</t>
+  </si>
+  <si>
+    <t>MODEA</t>
+  </si>
+  <si>
+    <t>WD_OUT0-WD_OUT2</t>
+  </si>
+  <si>
+    <t>output address</t>
+  </si>
+  <si>
+    <t>value mode</t>
+  </si>
+  <si>
+    <t>high for register address, low for immediate</t>
+  </si>
+  <si>
+    <t>bus A/B source</t>
+  </si>
+  <si>
+    <t>WD_A0-WD_A7</t>
+  </si>
+  <si>
+    <t>WD_B0-WD_B7</t>
+  </si>
+  <si>
+    <t>instruction word</t>
+  </si>
+  <si>
+    <t>PAGE0-PAGE7</t>
+  </si>
+  <si>
+    <t>MODEMEM</t>
+  </si>
+  <si>
+    <t>high for ram, low for program memory</t>
+  </si>
+  <si>
+    <t>MEMOUT0-MEMOUT7</t>
+  </si>
+  <si>
+    <t>memory input</t>
+  </si>
+  <si>
+    <t>memory output</t>
+  </si>
+  <si>
+    <t>memory mode</t>
+  </si>
+  <si>
+    <t>memory control</t>
   </si>
 </sst>
 </file>
@@ -308,7 +380,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -398,11 +470,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -413,11 +498,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -443,15 +534,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -732,10 +826,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -744,7 +838,7 @@
     <col min="1" max="1" width="17.33203125" customWidth="1"/>
     <col min="2" max="2" width="13.3984375" customWidth="1"/>
     <col min="3" max="3" width="15.46484375" customWidth="1"/>
-    <col min="4" max="4" width="15.265625" customWidth="1"/>
+    <col min="4" max="4" width="20.3984375" customWidth="1"/>
     <col min="5" max="5" width="8.46484375" customWidth="1"/>
     <col min="6" max="6" width="10.53125" customWidth="1"/>
     <col min="7" max="7" width="49.1328125" customWidth="1"/>
@@ -774,10 +868,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="14" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -797,9 +891,9 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" s="9"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="9" t="s">
+      <c r="A3" s="10"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -814,9 +908,9 @@
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" s="9"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="10"/>
       <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
@@ -829,9 +923,9 @@
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A5" s="9"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="10"/>
       <c r="D5" s="2" t="s">
         <v>10</v>
       </c>
@@ -844,9 +938,9 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6" s="9"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="10"/>
       <c r="D6" s="2" t="s">
         <v>11</v>
       </c>
@@ -859,8 +953,8 @@
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A7" s="9"/>
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="10"/>
+      <c r="B7" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -878,9 +972,9 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A8" s="9"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9" t="s">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -895,9 +989,9 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A9" s="9"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="10"/>
       <c r="D9" s="2" t="s">
         <v>22</v>
       </c>
@@ -910,9 +1004,9 @@
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A10" s="9"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="10"/>
       <c r="D10" s="2" t="s">
         <v>23</v>
       </c>
@@ -925,9 +1019,9 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A11" s="9"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="10"/>
       <c r="D11" s="2" t="s">
         <v>24</v>
       </c>
@@ -940,8 +1034,8 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A12" s="9"/>
-      <c r="B12" s="8" t="s">
+      <c r="A12" s="10"/>
+      <c r="B12" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -959,9 +1053,9 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A13" s="9"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9" t="s">
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -976,9 +1070,9 @@
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A14" s="9"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="10"/>
       <c r="D14" s="2" t="s">
         <v>28</v>
       </c>
@@ -991,9 +1085,9 @@
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A15" s="9"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="10"/>
       <c r="D15" s="2" t="s">
         <v>29</v>
       </c>
@@ -1006,9 +1100,9 @@
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A16" s="9"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="10"/>
       <c r="D16" s="2" t="s">
         <v>30</v>
       </c>
@@ -1021,8 +1115,8 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A17" s="9"/>
-      <c r="B17" s="8" t="s">
+      <c r="A17" s="10"/>
+      <c r="B17" s="11" t="s">
         <v>31</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -1040,9 +1134,9 @@
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A18" s="9"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="9" t="s">
+      <c r="A18" s="10"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -1057,9 +1151,9 @@
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A19" s="9"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="9"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="10"/>
       <c r="D19" s="2" t="s">
         <v>34</v>
       </c>
@@ -1072,9 +1166,9 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A20" s="9"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="9"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="10"/>
       <c r="D20" s="2" t="s">
         <v>35</v>
       </c>
@@ -1087,9 +1181,9 @@
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A21" s="9"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="10"/>
       <c r="D21" s="2" t="s">
         <v>36</v>
       </c>
@@ -1102,11 +1196,11 @@
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="9"/>
-      <c r="B22" s="15" t="s">
+      <c r="A22" s="10"/>
+      <c r="B22" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="15" t="s">
         <v>56</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -1121,9 +1215,9 @@
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A23" s="9"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="14"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="16"/>
       <c r="D23" s="2" t="s">
         <v>48</v>
       </c>
@@ -1136,9 +1230,9 @@
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A24" s="9"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="13" t="s">
+      <c r="A24" s="10"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="15" t="s">
         <v>57</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -1153,9 +1247,9 @@
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A25" s="9"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="14"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="16"/>
       <c r="D25" s="2" t="s">
         <v>49</v>
       </c>
@@ -1168,9 +1262,9 @@
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A26" s="9"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="13" t="s">
+      <c r="A26" s="10"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="15" t="s">
         <v>58</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -1185,9 +1279,9 @@
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A27" s="9"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="14"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="16"/>
       <c r="D27" s="2" t="s">
         <v>54</v>
       </c>
@@ -1200,8 +1294,8 @@
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A28" s="9"/>
-      <c r="B28" s="16"/>
+      <c r="A28" s="10"/>
+      <c r="B28" s="18"/>
       <c r="C28" s="4" t="s">
         <v>74</v>
       </c>
@@ -1219,8 +1313,8 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A29" s="9"/>
-      <c r="B29" s="17"/>
+      <c r="A29" s="10"/>
+      <c r="B29" s="19"/>
       <c r="C29" s="4" t="s">
         <v>75</v>
       </c>
@@ -1238,7 +1332,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A30" s="9"/>
+      <c r="A30" s="10"/>
       <c r="B30" s="2" t="s">
         <v>37</v>
       </c>
@@ -1255,7 +1349,7 @@
       <c r="G30" s="2"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A31" s="9"/>
+      <c r="A31" s="10"/>
       <c r="B31" s="2" t="s">
         <v>38</v>
       </c>
@@ -1272,7 +1366,7 @@
       <c r="G31" s="2"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A32" s="9"/>
+      <c r="A32" s="10"/>
       <c r="B32" s="2" t="s">
         <v>39</v>
       </c>
@@ -1289,7 +1383,7 @@
       <c r="G32" s="2"/>
     </row>
     <row r="33" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A33" s="11"/>
+      <c r="A33" s="13"/>
       <c r="B33" s="3" t="s">
         <v>40</v>
       </c>
@@ -1309,7 +1403,7 @@
       <c r="A34" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="8" t="s">
         <v>65</v>
       </c>
       <c r="C34" s="5" t="s">
@@ -1330,8 +1424,8 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" s="20"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="9" t="s">
+      <c r="B35" s="9"/>
+      <c r="C35" s="10" t="s">
         <v>67</v>
       </c>
       <c r="D35" s="2" t="s">
@@ -1349,8 +1443,8 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" s="20"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="10"/>
       <c r="D36" s="2" t="s">
         <v>61</v>
       </c>
@@ -1364,8 +1458,8 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" s="20"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="9" t="s">
+      <c r="B37" s="9"/>
+      <c r="C37" s="10" t="s">
         <v>66</v>
       </c>
       <c r="D37" s="2" t="s">
@@ -1381,8 +1475,8 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" s="20"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="10"/>
       <c r="D38" s="2" t="s">
         <v>63</v>
       </c>
@@ -1396,10 +1490,10 @@
     </row>
     <row r="39" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="20"/>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="11" t="s">
         <v>56</v>
       </c>
       <c r="D39" s="2" t="s">
@@ -1415,8 +1509,8 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" s="20"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
       <c r="D40" s="2" t="s">
         <v>48</v>
       </c>
@@ -1430,8 +1524,8 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" s="20"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8" t="s">
+      <c r="B41" s="11"/>
+      <c r="C41" s="11" t="s">
         <v>57</v>
       </c>
       <c r="D41" s="2" t="s">
@@ -1447,8 +1541,8 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" s="20"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
       <c r="D42" s="2" t="s">
         <v>49</v>
       </c>
@@ -1462,7 +1556,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" s="20"/>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="10" t="s">
         <v>37</v>
       </c>
       <c r="C43" s="2" t="s">
@@ -1481,7 +1575,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" s="20"/>
-      <c r="B44" s="9"/>
+      <c r="B44" s="10"/>
       <c r="C44" s="2" t="s">
         <v>68</v>
       </c>
@@ -1530,33 +1624,272 @@
       </c>
       <c r="G46" s="2"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A47" s="18"/>
-      <c r="B47" s="2" t="s">
+    <row r="47" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A47" s="23"/>
+      <c r="B47" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2" t="s">
+      <c r="C47" s="3"/>
+      <c r="D47" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G47" s="2"/>
+      <c r="E47" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G47" s="3"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A48" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D48" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="E48" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="F48" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="G48" s="7"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A49" s="10"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D49" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E49" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="F49" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="G49" s="2"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A50" s="10"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="E50" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="F50" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="G50" s="2"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A51" s="10"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D51" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="E51" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="F51" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="G51" s="2"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A52" s="10"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D52" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="E52" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="F52" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="G52" s="21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A53" s="10"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E53" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="F53" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="G53" s="21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A54" s="10"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D54" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E54" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="F54" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="G54" s="2"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A55" s="10"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E55" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="F55" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="G55" s="2"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A56" s="10"/>
+      <c r="B56" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D56" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="E56" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F56" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="G56" s="2"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A57" s="10"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D57" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="E57" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F57" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="G57" s="2"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A58" s="10"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E58" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F58" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="G58" s="2"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A59" s="10"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E59" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F59" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="G59" s="2"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A60" s="10"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="D60" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="E60" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="F60" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="G60" s="2"/>
+    </row>
+    <row r="61" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A61" s="13"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D61" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="E61" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="F61" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="G61" s="25" t="s">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="A34:A47"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="B43:B44"/>
+  <mergeCells count="28">
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="B56:B61"/>
+    <mergeCell ref="A48:A61"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="B48:B55"/>
     <mergeCell ref="B17:B21"/>
     <mergeCell ref="C18:C21"/>
     <mergeCell ref="A2:A33"/>
@@ -1570,6 +1903,14 @@
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="B22:B29"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="A34:A47"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="B43:B44"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/unit interface.xlsx
+++ b/unit interface.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olive\Desktop\pc project\rlpc\AX08-PC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC2F062-9065-4949-8B1B-C0C37632E57C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0264C26B-AD45-4052-8220-A598C74391BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="113">
   <si>
     <t>Unit</t>
   </si>
@@ -324,12 +335,6 @@
     <t>PAGE0-PAGE7</t>
   </si>
   <si>
-    <t>MODEMEM</t>
-  </si>
-  <si>
-    <t>high for ram, low for program memory</t>
-  </si>
-  <si>
     <t>MEMOUT0-MEMOUT7</t>
   </si>
   <si>
@@ -339,10 +344,37 @@
     <t>memory output</t>
   </si>
   <si>
-    <t>memory mode</t>
-  </si>
-  <si>
     <t>memory control</t>
+  </si>
+  <si>
+    <t>memory direction</t>
+  </si>
+  <si>
+    <t>MEMDIR</t>
+  </si>
+  <si>
+    <t>HOLD_OUT</t>
+  </si>
+  <si>
+    <t>high for write, low for read</t>
+  </si>
+  <si>
+    <t>induces write in ram mode</t>
+  </si>
+  <si>
+    <t>#pins</t>
+  </si>
+  <si>
+    <t>pin total</t>
+  </si>
+  <si>
+    <t>subtotal</t>
+  </si>
+  <si>
+    <t>memory address</t>
+  </si>
+  <si>
+    <t>memory data in</t>
   </si>
 </sst>
 </file>
@@ -487,7 +519,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -498,25 +530,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -534,18 +563,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -826,10 +859,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:J62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -844,7 +877,7 @@
     <col min="7" max="7" width="49.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -866,12 +899,21 @@
       <c r="G1" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2" s="12" t="s">
+      <c r="H1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -890,10 +932,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="10" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3" s="9"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -907,10 +949,10 @@
       </c>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="10"/>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A4" s="9"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="9"/>
       <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
@@ -922,10 +964,10 @@
       </c>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="10"/>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A5" s="9"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="9"/>
       <c r="D5" s="2" t="s">
         <v>10</v>
       </c>
@@ -937,10 +979,10 @@
       </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="10"/>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A6" s="9"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="9"/>
       <c r="D6" s="2" t="s">
         <v>11</v>
       </c>
@@ -952,9 +994,9 @@
       </c>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A7" s="9"/>
+      <c r="B7" s="13" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -971,10 +1013,10 @@
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="10" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A8" s="9"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -988,10 +1030,10 @@
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="10"/>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A9" s="9"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="9"/>
       <c r="D9" s="2" t="s">
         <v>22</v>
       </c>
@@ -1003,10 +1045,10 @@
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="10"/>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A10" s="9"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="9"/>
       <c r="D10" s="2" t="s">
         <v>23</v>
       </c>
@@ -1018,10 +1060,10 @@
       </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="10"/>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A11" s="9"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="9"/>
       <c r="D11" s="2" t="s">
         <v>24</v>
       </c>
@@ -1033,9 +1075,9 @@
       </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A12" s="10"/>
-      <c r="B12" s="11" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A12" s="9"/>
+      <c r="B12" s="13" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1052,10 +1094,10 @@
       </c>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="10" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A13" s="9"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -1069,10 +1111,10 @@
       </c>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="10"/>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A14" s="9"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="9"/>
       <c r="D14" s="2" t="s">
         <v>28</v>
       </c>
@@ -1084,10 +1126,10 @@
       </c>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="10"/>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A15" s="9"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="9"/>
       <c r="D15" s="2" t="s">
         <v>29</v>
       </c>
@@ -1099,10 +1141,10 @@
       </c>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="10"/>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A16" s="9"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="9"/>
       <c r="D16" s="2" t="s">
         <v>30</v>
       </c>
@@ -1115,8 +1157,8 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11" t="s">
+      <c r="A17" s="9"/>
+      <c r="B17" s="13" t="s">
         <v>31</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -1134,9 +1176,9 @@
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A18" s="10"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="10" t="s">
+      <c r="A18" s="9"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -1151,9 +1193,9 @@
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A19" s="10"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="10"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="9"/>
       <c r="D19" s="2" t="s">
         <v>34</v>
       </c>
@@ -1166,9 +1208,9 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A20" s="10"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="10"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="9"/>
       <c r="D20" s="2" t="s">
         <v>35</v>
       </c>
@@ -1181,9 +1223,9 @@
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="10"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="9"/>
       <c r="D21" s="2" t="s">
         <v>36</v>
       </c>
@@ -1196,11 +1238,11 @@
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="10"/>
-      <c r="B22" s="17" t="s">
+      <c r="A22" s="9"/>
+      <c r="B22" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="14" t="s">
         <v>56</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -1215,9 +1257,9 @@
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A23" s="10"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="16"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="15"/>
       <c r="D23" s="2" t="s">
         <v>48</v>
       </c>
@@ -1230,9 +1272,9 @@
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A24" s="10"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="15" t="s">
+      <c r="A24" s="9"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="14" t="s">
         <v>57</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -1247,9 +1289,9 @@
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A25" s="10"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="16"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="15"/>
       <c r="D25" s="2" t="s">
         <v>49</v>
       </c>
@@ -1262,9 +1304,9 @@
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A26" s="10"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="15" t="s">
+      <c r="A26" s="9"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="14" t="s">
         <v>58</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -1279,9 +1321,9 @@
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A27" s="10"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="16"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="15"/>
       <c r="D27" s="2" t="s">
         <v>54</v>
       </c>
@@ -1294,8 +1336,8 @@
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A28" s="10"/>
-      <c r="B28" s="18"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="17"/>
       <c r="C28" s="4" t="s">
         <v>74</v>
       </c>
@@ -1313,8 +1355,8 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A29" s="10"/>
-      <c r="B29" s="19"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="18"/>
       <c r="C29" s="4" t="s">
         <v>75</v>
       </c>
@@ -1332,7 +1374,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A30" s="10"/>
+      <c r="A30" s="9"/>
       <c r="B30" s="2" t="s">
         <v>37</v>
       </c>
@@ -1349,7 +1391,7 @@
       <c r="G30" s="2"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A31" s="10"/>
+      <c r="A31" s="9"/>
       <c r="B31" s="2" t="s">
         <v>38</v>
       </c>
@@ -1366,7 +1408,7 @@
       <c r="G31" s="2"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A32" s="10"/>
+      <c r="A32" s="9"/>
       <c r="B32" s="2" t="s">
         <v>39</v>
       </c>
@@ -1382,8 +1424,8 @@
       </c>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A33" s="13"/>
+    <row r="33" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A33" s="10"/>
       <c r="B33" s="3" t="s">
         <v>40</v>
       </c>
@@ -1399,11 +1441,11 @@
       </c>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A34" s="20" t="s">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A34" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="19" t="s">
         <v>65</v>
       </c>
       <c r="C34" s="5" t="s">
@@ -1422,10 +1464,10 @@
         <v>81</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A35" s="20"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="10" t="s">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A35" s="21"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="9" t="s">
         <v>67</v>
       </c>
       <c r="D35" s="2" t="s">
@@ -1441,10 +1483,10 @@
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A36" s="20"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="10"/>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A36" s="21"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="9"/>
       <c r="D36" s="2" t="s">
         <v>61</v>
       </c>
@@ -1456,10 +1498,10 @@
       </c>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A37" s="20"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="10" t="s">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A37" s="21"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="9" t="s">
         <v>66</v>
       </c>
       <c r="D37" s="2" t="s">
@@ -1473,10 +1515,10 @@
       </c>
       <c r="G37" s="2"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A38" s="20"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="10"/>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A38" s="21"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="9"/>
       <c r="D38" s="2" t="s">
         <v>63</v>
       </c>
@@ -1488,12 +1530,12 @@
       </c>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="20"/>
-      <c r="B39" s="11" t="s">
+    <row r="39" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="21"/>
+      <c r="B39" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D39" s="2" t="s">
@@ -1507,10 +1549,10 @@
       </c>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A40" s="20"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A40" s="21"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
       <c r="D40" s="2" t="s">
         <v>48</v>
       </c>
@@ -1522,10 +1564,10 @@
       </c>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A41" s="20"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11" t="s">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A41" s="21"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13" t="s">
         <v>57</v>
       </c>
       <c r="D41" s="2" t="s">
@@ -1539,10 +1581,10 @@
       </c>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A42" s="20"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A42" s="21"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
       <c r="D42" s="2" t="s">
         <v>49</v>
       </c>
@@ -1554,9 +1596,9 @@
       </c>
       <c r="G42" s="2"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A43" s="20"/>
-      <c r="B43" s="10" t="s">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A43" s="21"/>
+      <c r="B43" s="9" t="s">
         <v>37</v>
       </c>
       <c r="C43" s="2" t="s">
@@ -1573,9 +1615,9 @@
       </c>
       <c r="G43" s="2"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A44" s="20"/>
-      <c r="B44" s="10"/>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A44" s="21"/>
+      <c r="B44" s="9"/>
       <c r="C44" s="2" t="s">
         <v>68</v>
       </c>
@@ -1590,8 +1632,8 @@
       </c>
       <c r="G44" s="2"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A45" s="20"/>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A45" s="21"/>
       <c r="B45" s="2" t="s">
         <v>38</v>
       </c>
@@ -1607,8 +1649,8 @@
       </c>
       <c r="G45" s="2"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A46" s="20"/>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A46" s="21"/>
       <c r="B46" s="2" t="s">
         <v>39</v>
       </c>
@@ -1624,8 +1666,8 @@
       </c>
       <c r="G46" s="2"/>
     </row>
-    <row r="47" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A47" s="23"/>
+    <row r="47" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A47" s="22"/>
       <c r="B47" s="3" t="s">
         <v>70</v>
       </c>
@@ -1641,255 +1683,336 @@
       </c>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A48" s="12" t="s">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A48" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="B48" s="14" t="s">
+      <c r="B48" s="12" t="s">
         <v>97</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="D48" s="24" t="s">
+      <c r="D48" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="E48" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="F48" s="24" t="s">
+      <c r="E48" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F48" s="7" t="s">
         <v>45</v>
       </c>
       <c r="G48" s="7"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A49" s="10"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="10" t="s">
+      <c r="H48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A49" s="9"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="D49" s="21" t="s">
+      <c r="D49" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E49" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="F49" s="21" t="s">
+      <c r="E49" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F49" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G49" s="2"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A50" s="10"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="21" t="s">
+      <c r="H49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A50" s="9"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E50" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="F50" s="21" t="s">
+      <c r="E50" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F50" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G50" s="2"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A51" s="10"/>
-      <c r="B51" s="11"/>
+      <c r="H50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A51" s="9"/>
+      <c r="B51" s="13"/>
       <c r="C51" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D51" s="21" t="s">
+      <c r="D51" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E51" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="F51" s="21" t="s">
+      <c r="E51" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F51" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G51" s="2"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A52" s="10"/>
-      <c r="B52" s="11"/>
-      <c r="C52" s="10" t="s">
+      <c r="H51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A52" s="9"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="D52" s="21" t="s">
+      <c r="D52" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E52" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="F52" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="G52" s="21" t="s">
+      <c r="E52" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G52" s="2" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A53" s="10"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="21" t="s">
+      <c r="H52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A53" s="9"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E53" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="F53" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="G53" s="21" t="s">
+      <c r="E53" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G53" s="2" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A54" s="10"/>
-      <c r="B54" s="11"/>
-      <c r="C54" s="10" t="s">
+      <c r="H53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A54" s="9"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="D54" s="21" t="s">
+      <c r="D54" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E54" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="F54" s="21" t="s">
+      <c r="E54" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F54" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G54" s="2"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A55" s="10"/>
-      <c r="B55" s="11"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="21" t="s">
+      <c r="H54">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A55" s="9"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E55" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="F55" s="21" t="s">
+      <c r="E55" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F55" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G55" s="2"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A56" s="10"/>
-      <c r="B56" s="10" t="s">
-        <v>105</v>
+      <c r="H55">
+        <v>8</v>
+      </c>
+      <c r="I55">
+        <f>SUM(H48:H55)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A56" s="9"/>
+      <c r="B56" s="9" t="s">
+        <v>102</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D56" s="21" t="s">
+      <c r="D56" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E56" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="F56" s="21" t="s">
+      <c r="E56" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F56" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G56" s="2"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A57" s="10"/>
-      <c r="B57" s="10"/>
-      <c r="C57" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="D57" s="21" t="s">
+      <c r="H56">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A57" s="9"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E57" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="F57" s="21" t="s">
+      <c r="E57" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F57" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G57" s="2"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A58" s="10"/>
-      <c r="B58" s="10"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="21" t="s">
+      <c r="H57">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A58" s="9"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E58" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="F58" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="G58" s="2"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A59" s="10"/>
-      <c r="B59" s="10"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="21" t="s">
+      <c r="E58" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H58">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A59" s="9"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E59" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="F59" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="G59" s="2"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A60" s="10"/>
-      <c r="B60" s="10"/>
-      <c r="C60" s="22" t="s">
+      <c r="E59" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H59">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A60" s="9"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G60" s="2"/>
+      <c r="H60">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A61" s="23"/>
+      <c r="B61" s="23"/>
+      <c r="C61" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="D60" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="E60" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="F60" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="G60" s="2"/>
-    </row>
-    <row r="61" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A61" s="13"/>
-      <c r="B61" s="13"/>
-      <c r="C61" s="3" t="s">
+      <c r="D61" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D61" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="E61" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="F61" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="G61" s="25" t="s">
-        <v>100</v>
+      <c r="E61" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A62" s="10"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="E62" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="F62" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G62" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="I62">
+        <f>SUM(H56:H62)</f>
+        <v>50</v>
+      </c>
+      <c r="J62">
+        <f>I55+I62</f>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="B56:B61"/>
-    <mergeCell ref="A48:A61"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="B48:B55"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="A34:A47"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="B43:B44"/>
     <mergeCell ref="B17:B21"/>
     <mergeCell ref="C18:C21"/>
     <mergeCell ref="A2:A33"/>
@@ -1903,16 +2026,18 @@
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="B22:B29"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="A34:A47"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="B56:B62"/>
+    <mergeCell ref="A48:A62"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="B48:B55"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="I55 I62" formulaRange="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/unit interface.xlsx
+++ b/unit interface.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olive\Desktop\pc project\rlpc\AX08-PC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0264C26B-AD45-4052-8220-A598C74391BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1AD3CBF-99F6-4FD1-B83D-AA659C2FB29F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -533,19 +533,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -563,22 +576,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -862,7 +862,7 @@
   <dimension ref="A1:J62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -910,10 +910,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="18" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -933,9 +933,9 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A3" s="9"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="9" t="s">
+      <c r="A3" s="14"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="14" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -950,9 +950,9 @@
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A4" s="9"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="9"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="14"/>
       <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
@@ -965,9 +965,9 @@
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A5" s="9"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="9"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="14"/>
       <c r="D5" s="2" t="s">
         <v>10</v>
       </c>
@@ -980,9 +980,9 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A6" s="9"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="9"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="14"/>
       <c r="D6" s="2" t="s">
         <v>11</v>
       </c>
@@ -995,8 +995,8 @@
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A7" s="9"/>
-      <c r="B7" s="13" t="s">
+      <c r="A7" s="14"/>
+      <c r="B7" s="15" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1014,9 +1014,9 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A8" s="9"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="9" t="s">
+      <c r="A8" s="14"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="14" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -1031,9 +1031,9 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A9" s="9"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="9"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="14"/>
       <c r="D9" s="2" t="s">
         <v>22</v>
       </c>
@@ -1046,9 +1046,9 @@
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A10" s="9"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="9"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="14"/>
       <c r="D10" s="2" t="s">
         <v>23</v>
       </c>
@@ -1061,9 +1061,9 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A11" s="9"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="9"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="14"/>
       <c r="D11" s="2" t="s">
         <v>24</v>
       </c>
@@ -1076,8 +1076,8 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A12" s="9"/>
-      <c r="B12" s="13" t="s">
+      <c r="A12" s="14"/>
+      <c r="B12" s="15" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1095,9 +1095,9 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A13" s="9"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="9" t="s">
+      <c r="A13" s="14"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="14" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -1112,9 +1112,9 @@
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A14" s="9"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="9"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="14"/>
       <c r="D14" s="2" t="s">
         <v>28</v>
       </c>
@@ -1127,9 +1127,9 @@
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A15" s="9"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="9"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="14"/>
       <c r="D15" s="2" t="s">
         <v>29</v>
       </c>
@@ -1142,9 +1142,9 @@
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A16" s="9"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="9"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="14"/>
       <c r="D16" s="2" t="s">
         <v>30</v>
       </c>
@@ -1157,8 +1157,8 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A17" s="9"/>
-      <c r="B17" s="13" t="s">
+      <c r="A17" s="14"/>
+      <c r="B17" s="15" t="s">
         <v>31</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -1176,9 +1176,9 @@
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A18" s="9"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="9" t="s">
+      <c r="A18" s="14"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="14" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -1193,9 +1193,9 @@
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A19" s="9"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="9"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="14"/>
       <c r="D19" s="2" t="s">
         <v>34</v>
       </c>
@@ -1208,9 +1208,9 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A20" s="9"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="9"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="14"/>
       <c r="D20" s="2" t="s">
         <v>35</v>
       </c>
@@ -1223,9 +1223,9 @@
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A21" s="9"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="9"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="14"/>
       <c r="D21" s="2" t="s">
         <v>36</v>
       </c>
@@ -1238,11 +1238,11 @@
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="9"/>
-      <c r="B22" s="16" t="s">
+      <c r="A22" s="14"/>
+      <c r="B22" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="19" t="s">
         <v>56</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -1257,9 +1257,9 @@
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A23" s="9"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="15"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="20"/>
       <c r="D23" s="2" t="s">
         <v>48</v>
       </c>
@@ -1272,9 +1272,9 @@
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A24" s="9"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="14" t="s">
+      <c r="A24" s="14"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="19" t="s">
         <v>57</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -1289,9 +1289,9 @@
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A25" s="9"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="15"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="20"/>
       <c r="D25" s="2" t="s">
         <v>49</v>
       </c>
@@ -1304,9 +1304,9 @@
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A26" s="9"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="14" t="s">
+      <c r="A26" s="14"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="19" t="s">
         <v>58</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -1321,9 +1321,9 @@
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A27" s="9"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="15"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="20"/>
       <c r="D27" s="2" t="s">
         <v>54</v>
       </c>
@@ -1336,8 +1336,8 @@
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A28" s="9"/>
-      <c r="B28" s="17"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="22"/>
       <c r="C28" s="4" t="s">
         <v>74</v>
       </c>
@@ -1355,8 +1355,8 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A29" s="9"/>
-      <c r="B29" s="18"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="23"/>
       <c r="C29" s="4" t="s">
         <v>75</v>
       </c>
@@ -1374,7 +1374,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A30" s="9"/>
+      <c r="A30" s="14"/>
       <c r="B30" s="2" t="s">
         <v>37</v>
       </c>
@@ -1391,7 +1391,7 @@
       <c r="G30" s="2"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A31" s="9"/>
+      <c r="A31" s="14"/>
       <c r="B31" s="2" t="s">
         <v>38</v>
       </c>
@@ -1408,7 +1408,7 @@
       <c r="G31" s="2"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A32" s="9"/>
+      <c r="A32" s="14"/>
       <c r="B32" s="2" t="s">
         <v>39</v>
       </c>
@@ -1425,7 +1425,7 @@
       <c r="G32" s="2"/>
     </row>
     <row r="33" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A33" s="10"/>
+      <c r="A33" s="17"/>
       <c r="B33" s="3" t="s">
         <v>40</v>
       </c>
@@ -1442,10 +1442,10 @@
       <c r="G33" s="3"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A34" s="21" t="s">
+      <c r="A34" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="10" t="s">
         <v>65</v>
       </c>
       <c r="C34" s="5" t="s">
@@ -1465,9 +1465,9 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A35" s="21"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="9" t="s">
+      <c r="A35" s="12"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="14" t="s">
         <v>67</v>
       </c>
       <c r="D35" s="2" t="s">
@@ -1484,9 +1484,9 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A36" s="21"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="9"/>
+      <c r="A36" s="12"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="14"/>
       <c r="D36" s="2" t="s">
         <v>61</v>
       </c>
@@ -1499,9 +1499,9 @@
       <c r="G36" s="2"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A37" s="21"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="9" t="s">
+      <c r="A37" s="12"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="14" t="s">
         <v>66</v>
       </c>
       <c r="D37" s="2" t="s">
@@ -1516,9 +1516,9 @@
       <c r="G37" s="2"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A38" s="21"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="9"/>
+      <c r="A38" s="12"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="14"/>
       <c r="D38" s="2" t="s">
         <v>63</v>
       </c>
@@ -1531,11 +1531,11 @@
       <c r="G38" s="2"/>
     </row>
     <row r="39" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="21"/>
-      <c r="B39" s="13" t="s">
+      <c r="A39" s="12"/>
+      <c r="B39" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C39" s="15" t="s">
         <v>56</v>
       </c>
       <c r="D39" s="2" t="s">
@@ -1550,9 +1550,9 @@
       <c r="G39" s="2"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A40" s="21"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
+      <c r="A40" s="12"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
       <c r="D40" s="2" t="s">
         <v>48</v>
       </c>
@@ -1565,9 +1565,9 @@
       <c r="G40" s="2"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A41" s="21"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13" t="s">
+      <c r="A41" s="12"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="15" t="s">
         <v>57</v>
       </c>
       <c r="D41" s="2" t="s">
@@ -1582,9 +1582,9 @@
       <c r="G41" s="2"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A42" s="21"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
+      <c r="A42" s="12"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
       <c r="D42" s="2" t="s">
         <v>49</v>
       </c>
@@ -1597,8 +1597,8 @@
       <c r="G42" s="2"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A43" s="21"/>
-      <c r="B43" s="9" t="s">
+      <c r="A43" s="12"/>
+      <c r="B43" s="14" t="s">
         <v>37</v>
       </c>
       <c r="C43" s="2" t="s">
@@ -1616,8 +1616,8 @@
       <c r="G43" s="2"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A44" s="21"/>
-      <c r="B44" s="9"/>
+      <c r="A44" s="12"/>
+      <c r="B44" s="14"/>
       <c r="C44" s="2" t="s">
         <v>68</v>
       </c>
@@ -1633,7 +1633,7 @@
       <c r="G44" s="2"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A45" s="21"/>
+      <c r="A45" s="12"/>
       <c r="B45" s="2" t="s">
         <v>38</v>
       </c>
@@ -1650,7 +1650,7 @@
       <c r="G45" s="2"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A46" s="21"/>
+      <c r="A46" s="12"/>
       <c r="B46" s="2" t="s">
         <v>39</v>
       </c>
@@ -1667,7 +1667,7 @@
       <c r="G46" s="2"/>
     </row>
     <row r="47" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A47" s="22"/>
+      <c r="A47" s="13"/>
       <c r="B47" s="3" t="s">
         <v>70</v>
       </c>
@@ -1684,10 +1684,10 @@
       <c r="G47" s="3"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A48" s="11" t="s">
+      <c r="A48" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="B48" s="12" t="s">
+      <c r="B48" s="18" t="s">
         <v>97</v>
       </c>
       <c r="C48" s="7" t="s">
@@ -1708,9 +1708,9 @@
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A49" s="9"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="9" t="s">
+      <c r="A49" s="14"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="14" t="s">
         <v>87</v>
       </c>
       <c r="D49" s="2" t="s">
@@ -1728,9 +1728,9 @@
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A50" s="9"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="9"/>
+      <c r="A50" s="14"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="14"/>
       <c r="D50" s="2" t="s">
         <v>85</v>
       </c>
@@ -1746,8 +1746,8 @@
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A51" s="9"/>
-      <c r="B51" s="13"/>
+      <c r="A51" s="14"/>
+      <c r="B51" s="15"/>
       <c r="C51" s="2" t="s">
         <v>91</v>
       </c>
@@ -1766,9 +1766,9 @@
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A52" s="9"/>
-      <c r="B52" s="13"/>
-      <c r="C52" s="9" t="s">
+      <c r="A52" s="14"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="14" t="s">
         <v>92</v>
       </c>
       <c r="D52" s="2" t="s">
@@ -1788,9 +1788,9 @@
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A53" s="9"/>
-      <c r="B53" s="13"/>
-      <c r="C53" s="9"/>
+      <c r="A53" s="14"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="14"/>
       <c r="D53" s="2" t="s">
         <v>89</v>
       </c>
@@ -1808,9 +1808,9 @@
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A54" s="9"/>
-      <c r="B54" s="13"/>
-      <c r="C54" s="9" t="s">
+      <c r="A54" s="14"/>
+      <c r="B54" s="15"/>
+      <c r="C54" s="14" t="s">
         <v>94</v>
       </c>
       <c r="D54" s="2" t="s">
@@ -1828,9 +1828,9 @@
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A55" s="9"/>
-      <c r="B55" s="13"/>
-      <c r="C55" s="9"/>
+      <c r="A55" s="14"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="14"/>
       <c r="D55" s="2" t="s">
         <v>95</v>
       </c>
@@ -1850,8 +1850,8 @@
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A56" s="9"/>
-      <c r="B56" s="9" t="s">
+      <c r="A56" s="14"/>
+      <c r="B56" s="14" t="s">
         <v>102</v>
       </c>
       <c r="C56" s="2" t="s">
@@ -1872,9 +1872,9 @@
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A57" s="9"/>
-      <c r="B57" s="9"/>
-      <c r="C57" s="9" t="s">
+      <c r="A57" s="14"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14" t="s">
         <v>100</v>
       </c>
       <c r="D57" s="2" t="s">
@@ -1892,9 +1892,9 @@
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A58" s="9"/>
-      <c r="B58" s="9"/>
-      <c r="C58" s="9"/>
+      <c r="A58" s="14"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
       <c r="D58" s="2" t="s">
         <v>42</v>
       </c>
@@ -1912,9 +1912,9 @@
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A59" s="9"/>
-      <c r="B59" s="9"/>
-      <c r="C59" s="9"/>
+      <c r="A59" s="14"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
       <c r="D59" s="2" t="s">
         <v>43</v>
       </c>
@@ -1932,8 +1932,8 @@
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A60" s="9"/>
-      <c r="B60" s="9"/>
+      <c r="A60" s="14"/>
+      <c r="B60" s="14"/>
       <c r="C60" s="8" t="s">
         <v>101</v>
       </c>
@@ -1952,8 +1952,8 @@
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A61" s="23"/>
-      <c r="B61" s="23"/>
+      <c r="A61" s="24"/>
+      <c r="B61" s="24"/>
       <c r="C61" s="8" t="s">
         <v>103</v>
       </c>
@@ -1974,21 +1974,21 @@
       </c>
     </row>
     <row r="62" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A62" s="10"/>
-      <c r="B62" s="10"/>
-      <c r="C62" s="24" t="s">
+      <c r="A62" s="17"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D62" s="24" t="s">
+      <c r="D62" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="E62" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="F62" s="24" t="s">
+      <c r="E62" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F62" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G62" s="24" t="s">
+      <c r="G62" s="9" t="s">
         <v>107</v>
       </c>
       <c r="H62">
@@ -2005,14 +2005,13 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="A34:A47"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="B56:B62"/>
+    <mergeCell ref="A48:A62"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="B48:B55"/>
     <mergeCell ref="B17:B21"/>
     <mergeCell ref="C18:C21"/>
     <mergeCell ref="A2:A33"/>
@@ -2026,13 +2025,14 @@
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="B22:B29"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="B56:B62"/>
-    <mergeCell ref="A48:A62"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="B48:B55"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="A34:A47"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="B43:B44"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/unit interface.xlsx
+++ b/unit interface.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olive\Desktop\pc project\rlpc\AX08-PC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1AD3CBF-99F6-4FD1-B83D-AA659C2FB29F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92179F41-A923-4F2D-B252-15352032DE7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -534,31 +534,22 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -576,7 +567,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -862,7 +862,7 @@
   <dimension ref="A1:J62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -910,10 +910,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="14" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -933,9 +933,9 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A3" s="14"/>
+      <c r="A3" s="10"/>
       <c r="B3" s="15"/>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -950,9 +950,9 @@
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A4" s="14"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="15"/>
-      <c r="C4" s="14"/>
+      <c r="C4" s="10"/>
       <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
@@ -965,9 +965,9 @@
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A5" s="14"/>
+      <c r="A5" s="10"/>
       <c r="B5" s="15"/>
-      <c r="C5" s="14"/>
+      <c r="C5" s="10"/>
       <c r="D5" s="2" t="s">
         <v>10</v>
       </c>
@@ -980,9 +980,9 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A6" s="14"/>
+      <c r="A6" s="10"/>
       <c r="B6" s="15"/>
-      <c r="C6" s="14"/>
+      <c r="C6" s="10"/>
       <c r="D6" s="2" t="s">
         <v>11</v>
       </c>
@@ -995,7 +995,7 @@
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A7" s="14"/>
+      <c r="A7" s="10"/>
       <c r="B7" s="15" t="s">
         <v>18</v>
       </c>
@@ -1014,9 +1014,9 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A8" s="14"/>
+      <c r="A8" s="10"/>
       <c r="B8" s="15"/>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -1031,9 +1031,9 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A9" s="14"/>
+      <c r="A9" s="10"/>
       <c r="B9" s="15"/>
-      <c r="C9" s="14"/>
+      <c r="C9" s="10"/>
       <c r="D9" s="2" t="s">
         <v>22</v>
       </c>
@@ -1046,9 +1046,9 @@
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A10" s="14"/>
+      <c r="A10" s="10"/>
       <c r="B10" s="15"/>
-      <c r="C10" s="14"/>
+      <c r="C10" s="10"/>
       <c r="D10" s="2" t="s">
         <v>23</v>
       </c>
@@ -1061,9 +1061,9 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A11" s="14"/>
+      <c r="A11" s="10"/>
       <c r="B11" s="15"/>
-      <c r="C11" s="14"/>
+      <c r="C11" s="10"/>
       <c r="D11" s="2" t="s">
         <v>24</v>
       </c>
@@ -1076,7 +1076,7 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A12" s="14"/>
+      <c r="A12" s="10"/>
       <c r="B12" s="15" t="s">
         <v>25</v>
       </c>
@@ -1095,9 +1095,9 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A13" s="14"/>
+      <c r="A13" s="10"/>
       <c r="B13" s="15"/>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -1112,9 +1112,9 @@
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A14" s="14"/>
+      <c r="A14" s="10"/>
       <c r="B14" s="15"/>
-      <c r="C14" s="14"/>
+      <c r="C14" s="10"/>
       <c r="D14" s="2" t="s">
         <v>28</v>
       </c>
@@ -1127,9 +1127,9 @@
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A15" s="14"/>
+      <c r="A15" s="10"/>
       <c r="B15" s="15"/>
-      <c r="C15" s="14"/>
+      <c r="C15" s="10"/>
       <c r="D15" s="2" t="s">
         <v>29</v>
       </c>
@@ -1142,9 +1142,9 @@
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A16" s="14"/>
+      <c r="A16" s="10"/>
       <c r="B16" s="15"/>
-      <c r="C16" s="14"/>
+      <c r="C16" s="10"/>
       <c r="D16" s="2" t="s">
         <v>30</v>
       </c>
@@ -1157,7 +1157,7 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A17" s="14"/>
+      <c r="A17" s="10"/>
       <c r="B17" s="15" t="s">
         <v>31</v>
       </c>
@@ -1176,9 +1176,9 @@
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A18" s="14"/>
+      <c r="A18" s="10"/>
       <c r="B18" s="15"/>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -1193,9 +1193,9 @@
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A19" s="14"/>
+      <c r="A19" s="10"/>
       <c r="B19" s="15"/>
-      <c r="C19" s="14"/>
+      <c r="C19" s="10"/>
       <c r="D19" s="2" t="s">
         <v>34</v>
       </c>
@@ -1208,9 +1208,9 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A20" s="14"/>
+      <c r="A20" s="10"/>
       <c r="B20" s="15"/>
-      <c r="C20" s="14"/>
+      <c r="C20" s="10"/>
       <c r="D20" s="2" t="s">
         <v>35</v>
       </c>
@@ -1223,9 +1223,9 @@
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A21" s="14"/>
+      <c r="A21" s="10"/>
       <c r="B21" s="15"/>
-      <c r="C21" s="14"/>
+      <c r="C21" s="10"/>
       <c r="D21" s="2" t="s">
         <v>36</v>
       </c>
@@ -1238,11 +1238,11 @@
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="14"/>
-      <c r="B22" s="21" t="s">
+      <c r="A22" s="10"/>
+      <c r="B22" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="16" t="s">
         <v>56</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -1257,9 +1257,9 @@
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A23" s="14"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="20"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="17"/>
       <c r="D23" s="2" t="s">
         <v>48</v>
       </c>
@@ -1272,9 +1272,9 @@
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A24" s="14"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="19" t="s">
+      <c r="A24" s="10"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="16" t="s">
         <v>57</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -1289,9 +1289,9 @@
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A25" s="14"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="20"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="17"/>
       <c r="D25" s="2" t="s">
         <v>49</v>
       </c>
@@ -1304,9 +1304,9 @@
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A26" s="14"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="19" t="s">
+      <c r="A26" s="10"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="16" t="s">
         <v>58</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -1321,9 +1321,9 @@
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A27" s="14"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="20"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="17"/>
       <c r="D27" s="2" t="s">
         <v>54</v>
       </c>
@@ -1336,8 +1336,8 @@
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A28" s="14"/>
-      <c r="B28" s="22"/>
+      <c r="A28" s="10"/>
+      <c r="B28" s="19"/>
       <c r="C28" s="4" t="s">
         <v>74</v>
       </c>
@@ -1355,8 +1355,8 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A29" s="14"/>
-      <c r="B29" s="23"/>
+      <c r="A29" s="10"/>
+      <c r="B29" s="20"/>
       <c r="C29" s="4" t="s">
         <v>75</v>
       </c>
@@ -1374,7 +1374,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A30" s="14"/>
+      <c r="A30" s="10"/>
       <c r="B30" s="2" t="s">
         <v>37</v>
       </c>
@@ -1391,7 +1391,7 @@
       <c r="G30" s="2"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A31" s="14"/>
+      <c r="A31" s="10"/>
       <c r="B31" s="2" t="s">
         <v>38</v>
       </c>
@@ -1408,7 +1408,7 @@
       <c r="G31" s="2"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A32" s="14"/>
+      <c r="A32" s="10"/>
       <c r="B32" s="2" t="s">
         <v>39</v>
       </c>
@@ -1425,7 +1425,7 @@
       <c r="G32" s="2"/>
     </row>
     <row r="33" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A33" s="17"/>
+      <c r="A33" s="12"/>
       <c r="B33" s="3" t="s">
         <v>40</v>
       </c>
@@ -1442,10 +1442,10 @@
       <c r="G33" s="3"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="21" t="s">
         <v>65</v>
       </c>
       <c r="C34" s="5" t="s">
@@ -1465,9 +1465,9 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A35" s="12"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="14" t="s">
+      <c r="A35" s="23"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="10" t="s">
         <v>67</v>
       </c>
       <c r="D35" s="2" t="s">
@@ -1484,9 +1484,9 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A36" s="12"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="14"/>
+      <c r="A36" s="23"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="10"/>
       <c r="D36" s="2" t="s">
         <v>61</v>
       </c>
@@ -1499,9 +1499,9 @@
       <c r="G36" s="2"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A37" s="12"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="14" t="s">
+      <c r="A37" s="23"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="10" t="s">
         <v>66</v>
       </c>
       <c r="D37" s="2" t="s">
@@ -1516,9 +1516,9 @@
       <c r="G37" s="2"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A38" s="12"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="14"/>
+      <c r="A38" s="23"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="10"/>
       <c r="D38" s="2" t="s">
         <v>63</v>
       </c>
@@ -1531,7 +1531,7 @@
       <c r="G38" s="2"/>
     </row>
     <row r="39" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="12"/>
+      <c r="A39" s="23"/>
       <c r="B39" s="15" t="s">
         <v>55</v>
       </c>
@@ -1550,7 +1550,7 @@
       <c r="G39" s="2"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A40" s="12"/>
+      <c r="A40" s="23"/>
       <c r="B40" s="15"/>
       <c r="C40" s="15"/>
       <c r="D40" s="2" t="s">
@@ -1565,7 +1565,7 @@
       <c r="G40" s="2"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A41" s="12"/>
+      <c r="A41" s="23"/>
       <c r="B41" s="15"/>
       <c r="C41" s="15" t="s">
         <v>57</v>
@@ -1582,7 +1582,7 @@
       <c r="G41" s="2"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A42" s="12"/>
+      <c r="A42" s="23"/>
       <c r="B42" s="15"/>
       <c r="C42" s="15"/>
       <c r="D42" s="2" t="s">
@@ -1597,8 +1597,8 @@
       <c r="G42" s="2"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A43" s="12"/>
-      <c r="B43" s="14" t="s">
+      <c r="A43" s="23"/>
+      <c r="B43" s="10" t="s">
         <v>37</v>
       </c>
       <c r="C43" s="2" t="s">
@@ -1616,8 +1616,8 @@
       <c r="G43" s="2"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A44" s="12"/>
-      <c r="B44" s="14"/>
+      <c r="A44" s="23"/>
+      <c r="B44" s="10"/>
       <c r="C44" s="2" t="s">
         <v>68</v>
       </c>
@@ -1633,7 +1633,7 @@
       <c r="G44" s="2"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A45" s="12"/>
+      <c r="A45" s="23"/>
       <c r="B45" s="2" t="s">
         <v>38</v>
       </c>
@@ -1650,7 +1650,7 @@
       <c r="G45" s="2"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A46" s="12"/>
+      <c r="A46" s="23"/>
       <c r="B46" s="2" t="s">
         <v>39</v>
       </c>
@@ -1667,7 +1667,7 @@
       <c r="G46" s="2"/>
     </row>
     <row r="47" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A47" s="13"/>
+      <c r="A47" s="24"/>
       <c r="B47" s="3" t="s">
         <v>70</v>
       </c>
@@ -1684,10 +1684,10 @@
       <c r="G47" s="3"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A48" s="16" t="s">
+      <c r="A48" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="B48" s="18" t="s">
+      <c r="B48" s="14" t="s">
         <v>97</v>
       </c>
       <c r="C48" s="7" t="s">
@@ -1708,9 +1708,9 @@
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A49" s="14"/>
+      <c r="A49" s="10"/>
       <c r="B49" s="15"/>
-      <c r="C49" s="14" t="s">
+      <c r="C49" s="10" t="s">
         <v>87</v>
       </c>
       <c r="D49" s="2" t="s">
@@ -1728,9 +1728,9 @@
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A50" s="14"/>
+      <c r="A50" s="10"/>
       <c r="B50" s="15"/>
-      <c r="C50" s="14"/>
+      <c r="C50" s="10"/>
       <c r="D50" s="2" t="s">
         <v>85</v>
       </c>
@@ -1746,7 +1746,7 @@
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A51" s="14"/>
+      <c r="A51" s="10"/>
       <c r="B51" s="15"/>
       <c r="C51" s="2" t="s">
         <v>91</v>
@@ -1766,9 +1766,9 @@
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A52" s="14"/>
+      <c r="A52" s="10"/>
       <c r="B52" s="15"/>
-      <c r="C52" s="14" t="s">
+      <c r="C52" s="10" t="s">
         <v>92</v>
       </c>
       <c r="D52" s="2" t="s">
@@ -1788,9 +1788,9 @@
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A53" s="14"/>
+      <c r="A53" s="10"/>
       <c r="B53" s="15"/>
-      <c r="C53" s="14"/>
+      <c r="C53" s="10"/>
       <c r="D53" s="2" t="s">
         <v>89</v>
       </c>
@@ -1808,9 +1808,9 @@
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A54" s="14"/>
+      <c r="A54" s="10"/>
       <c r="B54" s="15"/>
-      <c r="C54" s="14" t="s">
+      <c r="C54" s="10" t="s">
         <v>94</v>
       </c>
       <c r="D54" s="2" t="s">
@@ -1828,9 +1828,9 @@
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A55" s="14"/>
+      <c r="A55" s="10"/>
       <c r="B55" s="15"/>
-      <c r="C55" s="14"/>
+      <c r="C55" s="10"/>
       <c r="D55" s="2" t="s">
         <v>95</v>
       </c>
@@ -1850,8 +1850,8 @@
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A56" s="14"/>
-      <c r="B56" s="14" t="s">
+      <c r="A56" s="10"/>
+      <c r="B56" s="10" t="s">
         <v>102</v>
       </c>
       <c r="C56" s="2" t="s">
@@ -1872,9 +1872,9 @@
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A57" s="14"/>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14" t="s">
+      <c r="A57" s="10"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="10" t="s">
         <v>100</v>
       </c>
       <c r="D57" s="2" t="s">
@@ -1892,9 +1892,9 @@
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A58" s="14"/>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
+      <c r="A58" s="10"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="10"/>
       <c r="D58" s="2" t="s">
         <v>42</v>
       </c>
@@ -1912,9 +1912,9 @@
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A59" s="14"/>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
+      <c r="A59" s="10"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="10"/>
       <c r="D59" s="2" t="s">
         <v>43</v>
       </c>
@@ -1932,8 +1932,8 @@
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A60" s="14"/>
-      <c r="B60" s="14"/>
+      <c r="A60" s="10"/>
+      <c r="B60" s="10"/>
       <c r="C60" s="8" t="s">
         <v>101</v>
       </c>
@@ -1952,8 +1952,8 @@
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A61" s="24"/>
-      <c r="B61" s="24"/>
+      <c r="A61" s="11"/>
+      <c r="B61" s="11"/>
       <c r="C61" s="8" t="s">
         <v>103</v>
       </c>
@@ -1974,8 +1974,8 @@
       </c>
     </row>
     <row r="62" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A62" s="17"/>
-      <c r="B62" s="17"/>
+      <c r="A62" s="12"/>
+      <c r="B62" s="12"/>
       <c r="C62" s="9" t="s">
         <v>14</v>
       </c>
@@ -2005,13 +2005,14 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="B56:B62"/>
-    <mergeCell ref="A48:A62"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="B48:B55"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="A34:A47"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="B43:B44"/>
     <mergeCell ref="B17:B21"/>
     <mergeCell ref="C18:C21"/>
     <mergeCell ref="A2:A33"/>
@@ -2025,14 +2026,13 @@
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="B22:B29"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="A34:A47"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="B56:B62"/>
+    <mergeCell ref="A48:A62"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="B48:B55"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/unit interface.xlsx
+++ b/unit interface.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olive\Desktop\pc project\rlpc\AX08-PC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92179F41-A923-4F2D-B252-15352032DE7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{448F8B66-C614-403A-B8BB-F3CD8EF76987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -350,15 +350,6 @@
     <t>memory direction</t>
   </si>
   <si>
-    <t>MEMDIR</t>
-  </si>
-  <si>
-    <t>HOLD_OUT</t>
-  </si>
-  <si>
-    <t>high for write, low for read</t>
-  </si>
-  <si>
     <t>induces write in ram mode</t>
   </si>
   <si>
@@ -375,6 +366,15 @@
   </si>
   <si>
     <t>memory data in</t>
+  </si>
+  <si>
+    <t>HOLD</t>
+  </si>
+  <si>
+    <t>OPDC_10101</t>
+  </si>
+  <si>
+    <t>high for write</t>
   </si>
 </sst>
 </file>
@@ -534,22 +534,31 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -567,16 +576,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -862,8 +862,8 @@
   <dimension ref="A1:J62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A48" sqref="A48:A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -900,20 +900,20 @@
         <v>16</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="18" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -933,9 +933,9 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A3" s="10"/>
+      <c r="A3" s="14"/>
       <c r="B3" s="15"/>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="14" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -950,9 +950,9 @@
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A4" s="10"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="15"/>
-      <c r="C4" s="10"/>
+      <c r="C4" s="14"/>
       <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
@@ -965,9 +965,9 @@
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A5" s="10"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="15"/>
-      <c r="C5" s="10"/>
+      <c r="C5" s="14"/>
       <c r="D5" s="2" t="s">
         <v>10</v>
       </c>
@@ -980,9 +980,9 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A6" s="10"/>
+      <c r="A6" s="14"/>
       <c r="B6" s="15"/>
-      <c r="C6" s="10"/>
+      <c r="C6" s="14"/>
       <c r="D6" s="2" t="s">
         <v>11</v>
       </c>
@@ -995,7 +995,7 @@
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A7" s="10"/>
+      <c r="A7" s="14"/>
       <c r="B7" s="15" t="s">
         <v>18</v>
       </c>
@@ -1014,9 +1014,9 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A8" s="10"/>
+      <c r="A8" s="14"/>
       <c r="B8" s="15"/>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="14" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -1031,9 +1031,9 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A9" s="10"/>
+      <c r="A9" s="14"/>
       <c r="B9" s="15"/>
-      <c r="C9" s="10"/>
+      <c r="C9" s="14"/>
       <c r="D9" s="2" t="s">
         <v>22</v>
       </c>
@@ -1046,9 +1046,9 @@
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A10" s="10"/>
+      <c r="A10" s="14"/>
       <c r="B10" s="15"/>
-      <c r="C10" s="10"/>
+      <c r="C10" s="14"/>
       <c r="D10" s="2" t="s">
         <v>23</v>
       </c>
@@ -1061,9 +1061,9 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A11" s="10"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="15"/>
-      <c r="C11" s="10"/>
+      <c r="C11" s="14"/>
       <c r="D11" s="2" t="s">
         <v>24</v>
       </c>
@@ -1076,7 +1076,7 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A12" s="10"/>
+      <c r="A12" s="14"/>
       <c r="B12" s="15" t="s">
         <v>25</v>
       </c>
@@ -1095,9 +1095,9 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A13" s="10"/>
+      <c r="A13" s="14"/>
       <c r="B13" s="15"/>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="14" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -1112,9 +1112,9 @@
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A14" s="10"/>
+      <c r="A14" s="14"/>
       <c r="B14" s="15"/>
-      <c r="C14" s="10"/>
+      <c r="C14" s="14"/>
       <c r="D14" s="2" t="s">
         <v>28</v>
       </c>
@@ -1127,9 +1127,9 @@
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A15" s="10"/>
+      <c r="A15" s="14"/>
       <c r="B15" s="15"/>
-      <c r="C15" s="10"/>
+      <c r="C15" s="14"/>
       <c r="D15" s="2" t="s">
         <v>29</v>
       </c>
@@ -1142,9 +1142,9 @@
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A16" s="10"/>
+      <c r="A16" s="14"/>
       <c r="B16" s="15"/>
-      <c r="C16" s="10"/>
+      <c r="C16" s="14"/>
       <c r="D16" s="2" t="s">
         <v>30</v>
       </c>
@@ -1157,7 +1157,7 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A17" s="10"/>
+      <c r="A17" s="14"/>
       <c r="B17" s="15" t="s">
         <v>31</v>
       </c>
@@ -1176,9 +1176,9 @@
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A18" s="10"/>
+      <c r="A18" s="14"/>
       <c r="B18" s="15"/>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="14" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -1193,9 +1193,9 @@
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A19" s="10"/>
+      <c r="A19" s="14"/>
       <c r="B19" s="15"/>
-      <c r="C19" s="10"/>
+      <c r="C19" s="14"/>
       <c r="D19" s="2" t="s">
         <v>34</v>
       </c>
@@ -1208,9 +1208,9 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A20" s="10"/>
+      <c r="A20" s="14"/>
       <c r="B20" s="15"/>
-      <c r="C20" s="10"/>
+      <c r="C20" s="14"/>
       <c r="D20" s="2" t="s">
         <v>35</v>
       </c>
@@ -1223,9 +1223,9 @@
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A21" s="10"/>
+      <c r="A21" s="14"/>
       <c r="B21" s="15"/>
-      <c r="C21" s="10"/>
+      <c r="C21" s="14"/>
       <c r="D21" s="2" t="s">
         <v>36</v>
       </c>
@@ -1238,11 +1238,11 @@
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="10"/>
-      <c r="B22" s="18" t="s">
+      <c r="A22" s="14"/>
+      <c r="B22" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="19" t="s">
         <v>56</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -1257,9 +1257,9 @@
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A23" s="10"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="17"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="20"/>
       <c r="D23" s="2" t="s">
         <v>48</v>
       </c>
@@ -1272,9 +1272,9 @@
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A24" s="10"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="16" t="s">
+      <c r="A24" s="14"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="19" t="s">
         <v>57</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -1289,9 +1289,9 @@
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A25" s="10"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="17"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="20"/>
       <c r="D25" s="2" t="s">
         <v>49</v>
       </c>
@@ -1304,9 +1304,9 @@
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A26" s="10"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="16" t="s">
+      <c r="A26" s="14"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="19" t="s">
         <v>58</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -1321,9 +1321,9 @@
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A27" s="10"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="17"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="20"/>
       <c r="D27" s="2" t="s">
         <v>54</v>
       </c>
@@ -1336,8 +1336,8 @@
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A28" s="10"/>
-      <c r="B28" s="19"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="22"/>
       <c r="C28" s="4" t="s">
         <v>74</v>
       </c>
@@ -1355,8 +1355,8 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A29" s="10"/>
-      <c r="B29" s="20"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="23"/>
       <c r="C29" s="4" t="s">
         <v>75</v>
       </c>
@@ -1374,7 +1374,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A30" s="10"/>
+      <c r="A30" s="14"/>
       <c r="B30" s="2" t="s">
         <v>37</v>
       </c>
@@ -1391,7 +1391,7 @@
       <c r="G30" s="2"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A31" s="10"/>
+      <c r="A31" s="14"/>
       <c r="B31" s="2" t="s">
         <v>38</v>
       </c>
@@ -1408,7 +1408,7 @@
       <c r="G31" s="2"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A32" s="10"/>
+      <c r="A32" s="14"/>
       <c r="B32" s="2" t="s">
         <v>39</v>
       </c>
@@ -1425,7 +1425,7 @@
       <c r="G32" s="2"/>
     </row>
     <row r="33" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A33" s="12"/>
+      <c r="A33" s="17"/>
       <c r="B33" s="3" t="s">
         <v>40</v>
       </c>
@@ -1442,10 +1442,10 @@
       <c r="G33" s="3"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A34" s="23" t="s">
+      <c r="A34" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B34" s="21" t="s">
+      <c r="B34" s="10" t="s">
         <v>65</v>
       </c>
       <c r="C34" s="5" t="s">
@@ -1465,9 +1465,9 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A35" s="23"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="10" t="s">
+      <c r="A35" s="12"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="14" t="s">
         <v>67</v>
       </c>
       <c r="D35" s="2" t="s">
@@ -1484,9 +1484,9 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A36" s="23"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="10"/>
+      <c r="A36" s="12"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="14"/>
       <c r="D36" s="2" t="s">
         <v>61</v>
       </c>
@@ -1499,9 +1499,9 @@
       <c r="G36" s="2"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A37" s="23"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="10" t="s">
+      <c r="A37" s="12"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="14" t="s">
         <v>66</v>
       </c>
       <c r="D37" s="2" t="s">
@@ -1516,9 +1516,9 @@
       <c r="G37" s="2"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A38" s="23"/>
-      <c r="B38" s="22"/>
-      <c r="C38" s="10"/>
+      <c r="A38" s="12"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="14"/>
       <c r="D38" s="2" t="s">
         <v>63</v>
       </c>
@@ -1531,7 +1531,7 @@
       <c r="G38" s="2"/>
     </row>
     <row r="39" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="23"/>
+      <c r="A39" s="12"/>
       <c r="B39" s="15" t="s">
         <v>55</v>
       </c>
@@ -1550,7 +1550,7 @@
       <c r="G39" s="2"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A40" s="23"/>
+      <c r="A40" s="12"/>
       <c r="B40" s="15"/>
       <c r="C40" s="15"/>
       <c r="D40" s="2" t="s">
@@ -1565,7 +1565,7 @@
       <c r="G40" s="2"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A41" s="23"/>
+      <c r="A41" s="12"/>
       <c r="B41" s="15"/>
       <c r="C41" s="15" t="s">
         <v>57</v>
@@ -1582,7 +1582,7 @@
       <c r="G41" s="2"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A42" s="23"/>
+      <c r="A42" s="12"/>
       <c r="B42" s="15"/>
       <c r="C42" s="15"/>
       <c r="D42" s="2" t="s">
@@ -1597,8 +1597,8 @@
       <c r="G42" s="2"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A43" s="23"/>
-      <c r="B43" s="10" t="s">
+      <c r="A43" s="12"/>
+      <c r="B43" s="14" t="s">
         <v>37</v>
       </c>
       <c r="C43" s="2" t="s">
@@ -1616,8 +1616,8 @@
       <c r="G43" s="2"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A44" s="23"/>
-      <c r="B44" s="10"/>
+      <c r="A44" s="12"/>
+      <c r="B44" s="14"/>
       <c r="C44" s="2" t="s">
         <v>68</v>
       </c>
@@ -1633,7 +1633,7 @@
       <c r="G44" s="2"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A45" s="23"/>
+      <c r="A45" s="12"/>
       <c r="B45" s="2" t="s">
         <v>38</v>
       </c>
@@ -1650,7 +1650,7 @@
       <c r="G45" s="2"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A46" s="23"/>
+      <c r="A46" s="12"/>
       <c r="B46" s="2" t="s">
         <v>39</v>
       </c>
@@ -1667,7 +1667,7 @@
       <c r="G46" s="2"/>
     </row>
     <row r="47" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A47" s="24"/>
+      <c r="A47" s="13"/>
       <c r="B47" s="3" t="s">
         <v>70</v>
       </c>
@@ -1684,10 +1684,10 @@
       <c r="G47" s="3"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A48" s="13" t="s">
+      <c r="A48" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="B48" s="14" t="s">
+      <c r="B48" s="18" t="s">
         <v>97</v>
       </c>
       <c r="C48" s="7" t="s">
@@ -1708,9 +1708,9 @@
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A49" s="10"/>
+      <c r="A49" s="14"/>
       <c r="B49" s="15"/>
-      <c r="C49" s="10" t="s">
+      <c r="C49" s="14" t="s">
         <v>87</v>
       </c>
       <c r="D49" s="2" t="s">
@@ -1728,9 +1728,9 @@
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A50" s="10"/>
+      <c r="A50" s="14"/>
       <c r="B50" s="15"/>
-      <c r="C50" s="10"/>
+      <c r="C50" s="14"/>
       <c r="D50" s="2" t="s">
         <v>85</v>
       </c>
@@ -1746,7 +1746,7 @@
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A51" s="10"/>
+      <c r="A51" s="14"/>
       <c r="B51" s="15"/>
       <c r="C51" s="2" t="s">
         <v>91</v>
@@ -1766,9 +1766,9 @@
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A52" s="10"/>
+      <c r="A52" s="14"/>
       <c r="B52" s="15"/>
-      <c r="C52" s="10" t="s">
+      <c r="C52" s="14" t="s">
         <v>92</v>
       </c>
       <c r="D52" s="2" t="s">
@@ -1788,9 +1788,9 @@
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A53" s="10"/>
+      <c r="A53" s="14"/>
       <c r="B53" s="15"/>
-      <c r="C53" s="10"/>
+      <c r="C53" s="14"/>
       <c r="D53" s="2" t="s">
         <v>89</v>
       </c>
@@ -1808,9 +1808,9 @@
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A54" s="10"/>
+      <c r="A54" s="14"/>
       <c r="B54" s="15"/>
-      <c r="C54" s="10" t="s">
+      <c r="C54" s="14" t="s">
         <v>94</v>
       </c>
       <c r="D54" s="2" t="s">
@@ -1828,9 +1828,9 @@
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A55" s="10"/>
+      <c r="A55" s="14"/>
       <c r="B55" s="15"/>
-      <c r="C55" s="10"/>
+      <c r="C55" s="14"/>
       <c r="D55" s="2" t="s">
         <v>95</v>
       </c>
@@ -1850,8 +1850,8 @@
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A56" s="10"/>
-      <c r="B56" s="10" t="s">
+      <c r="A56" s="14"/>
+      <c r="B56" s="14" t="s">
         <v>102</v>
       </c>
       <c r="C56" s="2" t="s">
@@ -1872,9 +1872,9 @@
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A57" s="10"/>
-      <c r="B57" s="10"/>
-      <c r="C57" s="10" t="s">
+      <c r="A57" s="14"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14" t="s">
         <v>100</v>
       </c>
       <c r="D57" s="2" t="s">
@@ -1892,9 +1892,9 @@
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A58" s="10"/>
-      <c r="B58" s="10"/>
-      <c r="C58" s="10"/>
+      <c r="A58" s="14"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
       <c r="D58" s="2" t="s">
         <v>42</v>
       </c>
@@ -1905,16 +1905,16 @@
         <v>45</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H58">
         <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A59" s="10"/>
-      <c r="B59" s="10"/>
-      <c r="C59" s="10"/>
+      <c r="A59" s="14"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
       <c r="D59" s="2" t="s">
         <v>43</v>
       </c>
@@ -1925,15 +1925,15 @@
         <v>45</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H59">
         <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A60" s="10"/>
-      <c r="B60" s="10"/>
+      <c r="A60" s="14"/>
+      <c r="B60" s="14"/>
       <c r="C60" s="8" t="s">
         <v>101</v>
       </c>
@@ -1952,13 +1952,13 @@
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A61" s="11"/>
-      <c r="B61" s="11"/>
+      <c r="A61" s="24"/>
+      <c r="B61" s="24"/>
       <c r="C61" s="8" t="s">
         <v>103</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>51</v>
@@ -1967,20 +1967,20 @@
         <v>45</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="H61">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A62" s="12"/>
-      <c r="B62" s="12"/>
+      <c r="A62" s="17"/>
+      <c r="B62" s="17"/>
       <c r="C62" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E62" s="9" t="s">
         <v>51</v>
@@ -1989,7 +1989,7 @@
         <v>7</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -2005,14 +2005,13 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="A34:A47"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="B56:B62"/>
+    <mergeCell ref="A48:A62"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="B48:B55"/>
     <mergeCell ref="B17:B21"/>
     <mergeCell ref="C18:C21"/>
     <mergeCell ref="A2:A33"/>
@@ -2026,13 +2025,14 @@
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="B22:B29"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="B56:B62"/>
-    <mergeCell ref="A48:A62"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="B48:B55"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="A34:A47"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="B43:B44"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/unit interface.xlsx
+++ b/unit interface.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olive\Desktop\pc project\rlpc\AX08-PC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{448F8B66-C614-403A-B8BB-F3CD8EF76987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17CBAA44-3C1C-493C-BC6D-4B062399C10A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="134">
   <si>
     <t>Unit</t>
   </si>
@@ -371,10 +371,73 @@
     <t>HOLD</t>
   </si>
   <si>
-    <t>OPDC_10101</t>
-  </si>
-  <si>
-    <t>high for write</t>
+    <t>front panel</t>
+  </si>
+  <si>
+    <t>weak pull down on mainboard, high for normal operation</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>5V, GND</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>system</t>
+  </si>
+  <si>
+    <t>sequencer</t>
+  </si>
+  <si>
+    <t>FREEZE_WRD</t>
+  </si>
+  <si>
+    <t>FREEZE_OP</t>
+  </si>
+  <si>
+    <t>AD_RGSET_OVERRIDE</t>
+  </si>
+  <si>
+    <t>STORE</t>
+  </si>
+  <si>
+    <t>induces register write regardless of write-enable or condition</t>
+  </si>
+  <si>
+    <t>induces conditional register write</t>
+  </si>
+  <si>
+    <t>high for PC source PC+1 and address override, low for PC source OUT and regular address mode</t>
+  </si>
+  <si>
+    <t>sequence</t>
+  </si>
+  <si>
+    <t>pulse group</t>
+  </si>
+  <si>
+    <t>state group</t>
+  </si>
+  <si>
+    <t>debug</t>
+  </si>
+  <si>
+    <t>reset mode if low, normal operation if high</t>
+  </si>
+  <si>
+    <t>causes break in normal operation mode</t>
+  </si>
+  <si>
+    <t>low for write mode</t>
+  </si>
+  <si>
+    <t>NOT_OPDC_11111</t>
+  </si>
+  <si>
+    <t>NOT_OPDC_10101</t>
   </si>
 </sst>
 </file>
@@ -412,7 +475,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -515,11 +578,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -533,32 +658,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -576,9 +694,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -859,11 +1002,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J62"/>
+  <dimension ref="A1:J74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A48" sqref="A48:A62"/>
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A66" sqref="A66:A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -874,7 +1017,7 @@
     <col min="4" max="4" width="20.3984375" customWidth="1"/>
     <col min="5" max="5" width="8.46484375" customWidth="1"/>
     <col min="6" max="6" width="10.53125" customWidth="1"/>
-    <col min="7" max="7" width="49.1328125" customWidth="1"/>
+    <col min="7" max="7" width="77.53125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -910,10 +1053,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="14" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -933,9 +1076,9 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A3" s="14"/>
+      <c r="A3" s="11"/>
       <c r="B3" s="15"/>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -950,9 +1093,9 @@
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A4" s="14"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="15"/>
-      <c r="C4" s="14"/>
+      <c r="C4" s="11"/>
       <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
@@ -965,9 +1108,9 @@
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A5" s="14"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="15"/>
-      <c r="C5" s="14"/>
+      <c r="C5" s="11"/>
       <c r="D5" s="2" t="s">
         <v>10</v>
       </c>
@@ -980,9 +1123,9 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A6" s="14"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="15"/>
-      <c r="C6" s="14"/>
+      <c r="C6" s="11"/>
       <c r="D6" s="2" t="s">
         <v>11</v>
       </c>
@@ -995,7 +1138,7 @@
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A7" s="14"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="15" t="s">
         <v>18</v>
       </c>
@@ -1014,9 +1157,9 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A8" s="14"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="15"/>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -1031,9 +1174,9 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A9" s="14"/>
+      <c r="A9" s="11"/>
       <c r="B9" s="15"/>
-      <c r="C9" s="14"/>
+      <c r="C9" s="11"/>
       <c r="D9" s="2" t="s">
         <v>22</v>
       </c>
@@ -1046,9 +1189,9 @@
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A10" s="14"/>
+      <c r="A10" s="11"/>
       <c r="B10" s="15"/>
-      <c r="C10" s="14"/>
+      <c r="C10" s="11"/>
       <c r="D10" s="2" t="s">
         <v>23</v>
       </c>
@@ -1061,9 +1204,9 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A11" s="14"/>
+      <c r="A11" s="11"/>
       <c r="B11" s="15"/>
-      <c r="C11" s="14"/>
+      <c r="C11" s="11"/>
       <c r="D11" s="2" t="s">
         <v>24</v>
       </c>
@@ -1076,7 +1219,7 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A12" s="14"/>
+      <c r="A12" s="11"/>
       <c r="B12" s="15" t="s">
         <v>25</v>
       </c>
@@ -1095,9 +1238,9 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A13" s="14"/>
+      <c r="A13" s="11"/>
       <c r="B13" s="15"/>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -1112,9 +1255,9 @@
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A14" s="14"/>
+      <c r="A14" s="11"/>
       <c r="B14" s="15"/>
-      <c r="C14" s="14"/>
+      <c r="C14" s="11"/>
       <c r="D14" s="2" t="s">
         <v>28</v>
       </c>
@@ -1127,9 +1270,9 @@
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A15" s="14"/>
+      <c r="A15" s="11"/>
       <c r="B15" s="15"/>
-      <c r="C15" s="14"/>
+      <c r="C15" s="11"/>
       <c r="D15" s="2" t="s">
         <v>29</v>
       </c>
@@ -1142,9 +1285,9 @@
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A16" s="14"/>
+      <c r="A16" s="11"/>
       <c r="B16" s="15"/>
-      <c r="C16" s="14"/>
+      <c r="C16" s="11"/>
       <c r="D16" s="2" t="s">
         <v>30</v>
       </c>
@@ -1157,7 +1300,7 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A17" s="14"/>
+      <c r="A17" s="11"/>
       <c r="B17" s="15" t="s">
         <v>31</v>
       </c>
@@ -1176,9 +1319,9 @@
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A18" s="14"/>
+      <c r="A18" s="11"/>
       <c r="B18" s="15"/>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -1193,9 +1336,9 @@
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A19" s="14"/>
+      <c r="A19" s="11"/>
       <c r="B19" s="15"/>
-      <c r="C19" s="14"/>
+      <c r="C19" s="11"/>
       <c r="D19" s="2" t="s">
         <v>34</v>
       </c>
@@ -1208,9 +1351,9 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A20" s="14"/>
+      <c r="A20" s="11"/>
       <c r="B20" s="15"/>
-      <c r="C20" s="14"/>
+      <c r="C20" s="11"/>
       <c r="D20" s="2" t="s">
         <v>35</v>
       </c>
@@ -1223,9 +1366,9 @@
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A21" s="14"/>
+      <c r="A21" s="11"/>
       <c r="B21" s="15"/>
-      <c r="C21" s="14"/>
+      <c r="C21" s="11"/>
       <c r="D21" s="2" t="s">
         <v>36</v>
       </c>
@@ -1238,11 +1381,11 @@
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="14"/>
-      <c r="B22" s="21" t="s">
+      <c r="A22" s="11"/>
+      <c r="B22" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="16" t="s">
         <v>56</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -1257,9 +1400,9 @@
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A23" s="14"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="20"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="17"/>
       <c r="D23" s="2" t="s">
         <v>48</v>
       </c>
@@ -1272,9 +1415,9 @@
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A24" s="14"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="19" t="s">
+      <c r="A24" s="11"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="16" t="s">
         <v>57</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -1289,9 +1432,9 @@
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A25" s="14"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="20"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="17"/>
       <c r="D25" s="2" t="s">
         <v>49</v>
       </c>
@@ -1304,9 +1447,9 @@
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A26" s="14"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="19" t="s">
+      <c r="A26" s="11"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="16" t="s">
         <v>58</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -1321,9 +1464,9 @@
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A27" s="14"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="20"/>
+      <c r="A27" s="11"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="17"/>
       <c r="D27" s="2" t="s">
         <v>54</v>
       </c>
@@ -1336,8 +1479,8 @@
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A28" s="14"/>
-      <c r="B28" s="22"/>
+      <c r="A28" s="11"/>
+      <c r="B28" s="19"/>
       <c r="C28" s="4" t="s">
         <v>74</v>
       </c>
@@ -1355,8 +1498,8 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A29" s="14"/>
-      <c r="B29" s="23"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="20"/>
       <c r="C29" s="4" t="s">
         <v>75</v>
       </c>
@@ -1374,7 +1517,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A30" s="14"/>
+      <c r="A30" s="11"/>
       <c r="B30" s="2" t="s">
         <v>37</v>
       </c>
@@ -1391,7 +1534,7 @@
       <c r="G30" s="2"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A31" s="14"/>
+      <c r="A31" s="11"/>
       <c r="B31" s="2" t="s">
         <v>38</v>
       </c>
@@ -1408,7 +1551,7 @@
       <c r="G31" s="2"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A32" s="14"/>
+      <c r="A32" s="11"/>
       <c r="B32" s="2" t="s">
         <v>39</v>
       </c>
@@ -1424,8 +1567,8 @@
       </c>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A33" s="17"/>
+    <row r="33" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A33" s="12"/>
       <c r="B33" s="3" t="s">
         <v>40</v>
       </c>
@@ -1441,11 +1584,11 @@
       </c>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A34" s="12" t="s">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A34" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="21" t="s">
         <v>65</v>
       </c>
       <c r="C34" s="5" t="s">
@@ -1464,10 +1607,10 @@
         <v>81</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A35" s="12"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="14" t="s">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A35" s="23"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="11" t="s">
         <v>67</v>
       </c>
       <c r="D35" s="2" t="s">
@@ -1483,10 +1626,10 @@
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A36" s="12"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="14"/>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A36" s="23"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="11"/>
       <c r="D36" s="2" t="s">
         <v>61</v>
       </c>
@@ -1498,10 +1641,10 @@
       </c>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A37" s="12"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="14" t="s">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A37" s="23"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="11" t="s">
         <v>66</v>
       </c>
       <c r="D37" s="2" t="s">
@@ -1515,10 +1658,10 @@
       </c>
       <c r="G37" s="2"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A38" s="12"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="14"/>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A38" s="23"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="11"/>
       <c r="D38" s="2" t="s">
         <v>63</v>
       </c>
@@ -1530,8 +1673,8 @@
       </c>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="12"/>
+    <row r="39" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="23"/>
       <c r="B39" s="15" t="s">
         <v>55</v>
       </c>
@@ -1549,8 +1692,8 @@
       </c>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A40" s="12"/>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A40" s="23"/>
       <c r="B40" s="15"/>
       <c r="C40" s="15"/>
       <c r="D40" s="2" t="s">
@@ -1564,8 +1707,8 @@
       </c>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A41" s="12"/>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A41" s="23"/>
       <c r="B41" s="15"/>
       <c r="C41" s="15" t="s">
         <v>57</v>
@@ -1581,8 +1724,8 @@
       </c>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A42" s="12"/>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A42" s="23"/>
       <c r="B42" s="15"/>
       <c r="C42" s="15"/>
       <c r="D42" s="2" t="s">
@@ -1596,9 +1739,9 @@
       </c>
       <c r="G42" s="2"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A43" s="12"/>
-      <c r="B43" s="14" t="s">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A43" s="23"/>
+      <c r="B43" s="11" t="s">
         <v>37</v>
       </c>
       <c r="C43" s="2" t="s">
@@ -1615,9 +1758,9 @@
       </c>
       <c r="G43" s="2"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A44" s="12"/>
-      <c r="B44" s="14"/>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A44" s="23"/>
+      <c r="B44" s="11"/>
       <c r="C44" s="2" t="s">
         <v>68</v>
       </c>
@@ -1632,8 +1775,8 @@
       </c>
       <c r="G44" s="2"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A45" s="12"/>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A45" s="23"/>
       <c r="B45" s="2" t="s">
         <v>38</v>
       </c>
@@ -1649,8 +1792,8 @@
       </c>
       <c r="G45" s="2"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A46" s="12"/>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A46" s="23"/>
       <c r="B46" s="2" t="s">
         <v>39</v>
       </c>
@@ -1666,8 +1809,8 @@
       </c>
       <c r="G46" s="2"/>
     </row>
-    <row r="47" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A47" s="13"/>
+    <row r="47" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A47" s="24"/>
       <c r="B47" s="3" t="s">
         <v>70</v>
       </c>
@@ -1683,11 +1826,11 @@
       </c>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A48" s="16" t="s">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A48" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="B48" s="18" t="s">
+      <c r="B48" s="14" t="s">
         <v>97</v>
       </c>
       <c r="C48" s="7" t="s">
@@ -1703,14 +1846,16 @@
         <v>45</v>
       </c>
       <c r="G48" s="7"/>
-      <c r="H48">
+      <c r="H48" s="28">
         <v>5</v>
       </c>
+      <c r="I48" s="29"/>
+      <c r="J48" s="29"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A49" s="14"/>
+      <c r="A49" s="23"/>
       <c r="B49" s="15"/>
-      <c r="C49" s="14" t="s">
+      <c r="C49" s="11" t="s">
         <v>87</v>
       </c>
       <c r="D49" s="2" t="s">
@@ -1728,9 +1873,9 @@
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A50" s="14"/>
+      <c r="A50" s="23"/>
       <c r="B50" s="15"/>
-      <c r="C50" s="14"/>
+      <c r="C50" s="11"/>
       <c r="D50" s="2" t="s">
         <v>85</v>
       </c>
@@ -1746,7 +1891,7 @@
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A51" s="14"/>
+      <c r="A51" s="23"/>
       <c r="B51" s="15"/>
       <c r="C51" s="2" t="s">
         <v>91</v>
@@ -1766,9 +1911,9 @@
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A52" s="14"/>
+      <c r="A52" s="23"/>
       <c r="B52" s="15"/>
-      <c r="C52" s="14" t="s">
+      <c r="C52" s="11" t="s">
         <v>92</v>
       </c>
       <c r="D52" s="2" t="s">
@@ -1788,9 +1933,9 @@
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A53" s="14"/>
+      <c r="A53" s="23"/>
       <c r="B53" s="15"/>
-      <c r="C53" s="14"/>
+      <c r="C53" s="11"/>
       <c r="D53" s="2" t="s">
         <v>89</v>
       </c>
@@ -1808,9 +1953,9 @@
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A54" s="14"/>
+      <c r="A54" s="23"/>
       <c r="B54" s="15"/>
-      <c r="C54" s="14" t="s">
+      <c r="C54" s="11" t="s">
         <v>94</v>
       </c>
       <c r="D54" s="2" t="s">
@@ -1828,9 +1973,9 @@
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A55" s="14"/>
+      <c r="A55" s="23"/>
       <c r="B55" s="15"/>
-      <c r="C55" s="14"/>
+      <c r="C55" s="11"/>
       <c r="D55" s="2" t="s">
         <v>95</v>
       </c>
@@ -1850,8 +1995,8 @@
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A56" s="14"/>
-      <c r="B56" s="14" t="s">
+      <c r="A56" s="23"/>
+      <c r="B56" s="11" t="s">
         <v>102</v>
       </c>
       <c r="C56" s="2" t="s">
@@ -1872,9 +2017,9 @@
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A57" s="14"/>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14" t="s">
+      <c r="A57" s="23"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="11" t="s">
         <v>100</v>
       </c>
       <c r="D57" s="2" t="s">
@@ -1892,9 +2037,9 @@
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A58" s="14"/>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
+      <c r="A58" s="23"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="11"/>
       <c r="D58" s="2" t="s">
         <v>42</v>
       </c>
@@ -1912,9 +2057,9 @@
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A59" s="14"/>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
+      <c r="A59" s="23"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="11"/>
       <c r="D59" s="2" t="s">
         <v>43</v>
       </c>
@@ -1932,8 +2077,8 @@
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A60" s="14"/>
-      <c r="B60" s="14"/>
+      <c r="A60" s="23"/>
+      <c r="B60" s="11"/>
       <c r="C60" s="8" t="s">
         <v>101</v>
       </c>
@@ -1952,43 +2097,43 @@
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A61" s="24"/>
-      <c r="B61" s="24"/>
+      <c r="A61" s="23"/>
+      <c r="B61" s="11"/>
       <c r="C61" s="8" t="s">
         <v>103</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>51</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="H61">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A62" s="17"/>
-      <c r="B62" s="17"/>
-      <c r="C62" s="9" t="s">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A62" s="23"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D62" s="9" t="s">
+      <c r="D62" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E62" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F62" s="9" t="s">
+      <c r="E62" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F62" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G62" s="9" t="s">
+      <c r="G62" s="2" t="s">
         <v>104</v>
       </c>
       <c r="H62">
@@ -1998,20 +2143,299 @@
         <f>SUM(H56:H62)</f>
         <v>50</v>
       </c>
-      <c r="J62">
-        <f>I55+I62</f>
-        <v>82</v>
+    </row>
+    <row r="63" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A63" s="24"/>
+      <c r="B63" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="C63" s="10"/>
+      <c r="D63" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G63" s="27"/>
+      <c r="H63" s="30">
+        <v>2</v>
+      </c>
+      <c r="I63" s="31">
+        <v>2</v>
+      </c>
+      <c r="J63" s="31">
+        <f>I55+I62+I63</f>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A64" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="B64" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H64" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A65" s="12"/>
+      <c r="B65" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="C65" s="10"/>
+      <c r="D65" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G65" s="3"/>
+      <c r="H65" s="30">
+        <v>2</v>
+      </c>
+      <c r="I65" s="31"/>
+      <c r="J65" s="31">
+        <f>H64+H65</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A66" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="B66" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G66" s="7"/>
+      <c r="H66" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A67" s="23"/>
+      <c r="B67" s="15"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G67" s="2"/>
+      <c r="H67" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A68" s="23"/>
+      <c r="B68" s="15"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G68" s="2"/>
+      <c r="H68" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A69" s="23"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H69" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A70" s="23"/>
+      <c r="B70" s="15"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="H70" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A71" s="23"/>
+      <c r="B71" s="15"/>
+      <c r="C71" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H71" s="32">
+        <v>1</v>
+      </c>
+      <c r="I71">
+        <f>SUM(H66:H71)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A72" s="23"/>
+      <c r="B72" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H72" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A73" s="23"/>
+      <c r="B73" s="15"/>
+      <c r="C73" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D73" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="E73" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="F73" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H73" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A74" s="24"/>
+      <c r="B74" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="C74" s="10"/>
+      <c r="D74" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G74" s="3"/>
+      <c r="H74" s="30">
+        <v>2</v>
+      </c>
+      <c r="I74" s="31">
+        <f>SUM(H72:H74)</f>
+        <v>4</v>
+      </c>
+      <c r="J74" s="31">
+        <f>I71+I74</f>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="B56:B62"/>
-    <mergeCell ref="A48:A62"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="B48:B55"/>
+  <mergeCells count="33">
+    <mergeCell ref="B66:B71"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="C66:C70"/>
+    <mergeCell ref="A66:A74"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A48:A63"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="A34:A47"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="B43:B44"/>
     <mergeCell ref="B17:B21"/>
     <mergeCell ref="C18:C21"/>
     <mergeCell ref="A2:A33"/>
@@ -2025,19 +2449,17 @@
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="B22:B29"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="A34:A47"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="B56:B62"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="B48:B55"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="I55 I62" formulaRange="1"/>
+    <ignoredError sqref="I55 I62 I71 I74" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/unit interface.xlsx
+++ b/unit interface.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olive\Desktop\pc project\rlpc\AX08-PC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17CBAA44-3C1C-493C-BC6D-4B062399C10A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F7EFF5-69B5-4BD6-948F-797284262094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="143">
   <si>
     <t>Unit</t>
   </si>
@@ -438,6 +438,33 @@
   </si>
   <si>
     <t>NOT_OPDC_10101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IO unit (here: 0) </t>
+  </si>
+  <si>
+    <t>NOT_OPDC_11000</t>
+  </si>
+  <si>
+    <t>NOT_OPDC_11001</t>
+  </si>
+  <si>
+    <t>NOT_OPDC_11010</t>
+  </si>
+  <si>
+    <t>DATA0-DATA7</t>
+  </si>
+  <si>
+    <t>bi</t>
+  </si>
+  <si>
+    <t>operation</t>
+  </si>
+  <si>
+    <t>rising/falling</t>
+  </si>
+  <si>
+    <t>induces write on rising, pop on falling if corresponding operation is active</t>
   </si>
 </sst>
 </file>
@@ -644,7 +671,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -664,48 +691,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -717,11 +702,76 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1002,11 +1052,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J74"/>
+  <dimension ref="A1:J80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A66" sqref="A66:A74"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1016,7 +1066,7 @@
     <col min="3" max="3" width="15.46484375" customWidth="1"/>
     <col min="4" max="4" width="20.3984375" customWidth="1"/>
     <col min="5" max="5" width="8.46484375" customWidth="1"/>
-    <col min="6" max="6" width="10.53125" customWidth="1"/>
+    <col min="6" max="6" width="10.9296875" customWidth="1"/>
     <col min="7" max="7" width="77.53125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1053,10 +1103,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -1076,9 +1126,9 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A3" s="11"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="11" t="s">
+      <c r="A3" s="22"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="22" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -1093,9 +1143,9 @@
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A4" s="11"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="11"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="22"/>
       <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
@@ -1108,9 +1158,9 @@
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A5" s="11"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="11"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="22"/>
       <c r="D5" s="2" t="s">
         <v>10</v>
       </c>
@@ -1123,9 +1173,9 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A6" s="11"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="11"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="22"/>
       <c r="D6" s="2" t="s">
         <v>11</v>
       </c>
@@ -1138,8 +1188,8 @@
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A7" s="11"/>
-      <c r="B7" s="15" t="s">
+      <c r="A7" s="22"/>
+      <c r="B7" s="20" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1157,9 +1207,9 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A8" s="11"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="11" t="s">
+      <c r="A8" s="22"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="22" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -1174,9 +1224,9 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A9" s="11"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="11"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="22"/>
       <c r="D9" s="2" t="s">
         <v>22</v>
       </c>
@@ -1189,9 +1239,9 @@
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A10" s="11"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="11"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="22"/>
       <c r="D10" s="2" t="s">
         <v>23</v>
       </c>
@@ -1204,9 +1254,9 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A11" s="11"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="11"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="22"/>
       <c r="D11" s="2" t="s">
         <v>24</v>
       </c>
@@ -1219,8 +1269,8 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A12" s="11"/>
-      <c r="B12" s="15" t="s">
+      <c r="A12" s="22"/>
+      <c r="B12" s="20" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1238,9 +1288,9 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A13" s="11"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="11" t="s">
+      <c r="A13" s="22"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="22" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -1255,9 +1305,9 @@
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A14" s="11"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="11"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="22"/>
       <c r="D14" s="2" t="s">
         <v>28</v>
       </c>
@@ -1270,9 +1320,9 @@
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A15" s="11"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="11"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="22"/>
       <c r="D15" s="2" t="s">
         <v>29</v>
       </c>
@@ -1285,9 +1335,9 @@
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A16" s="11"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="11"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="22"/>
       <c r="D16" s="2" t="s">
         <v>30</v>
       </c>
@@ -1300,8 +1350,8 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A17" s="11"/>
-      <c r="B17" s="15" t="s">
+      <c r="A17" s="22"/>
+      <c r="B17" s="20" t="s">
         <v>31</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -1319,9 +1369,9 @@
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A18" s="11"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="11" t="s">
+      <c r="A18" s="22"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="22" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -1336,9 +1386,9 @@
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A19" s="11"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="11"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="22"/>
       <c r="D19" s="2" t="s">
         <v>34</v>
       </c>
@@ -1351,9 +1401,9 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A20" s="11"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="11"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="22"/>
       <c r="D20" s="2" t="s">
         <v>35</v>
       </c>
@@ -1366,9 +1416,9 @@
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A21" s="11"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="11"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="22"/>
       <c r="D21" s="2" t="s">
         <v>36</v>
       </c>
@@ -1381,11 +1431,11 @@
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="11"/>
-      <c r="B22" s="18" t="s">
+      <c r="A22" s="22"/>
+      <c r="B22" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="29" t="s">
         <v>56</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -1400,9 +1450,9 @@
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A23" s="11"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="17"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="30"/>
       <c r="D23" s="2" t="s">
         <v>48</v>
       </c>
@@ -1415,9 +1465,9 @@
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A24" s="11"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="16" t="s">
+      <c r="A24" s="22"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="29" t="s">
         <v>57</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -1432,9 +1482,9 @@
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A25" s="11"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="17"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="30"/>
       <c r="D25" s="2" t="s">
         <v>49</v>
       </c>
@@ -1447,9 +1497,9 @@
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A26" s="11"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="16" t="s">
+      <c r="A26" s="22"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="29" t="s">
         <v>58</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -1464,9 +1514,9 @@
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A27" s="11"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="17"/>
+      <c r="A27" s="22"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="30"/>
       <c r="D27" s="2" t="s">
         <v>54</v>
       </c>
@@ -1479,8 +1529,8 @@
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A28" s="11"/>
-      <c r="B28" s="19"/>
+      <c r="A28" s="22"/>
+      <c r="B28" s="32"/>
       <c r="C28" s="4" t="s">
         <v>74</v>
       </c>
@@ -1498,8 +1548,8 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A29" s="11"/>
-      <c r="B29" s="20"/>
+      <c r="A29" s="22"/>
+      <c r="B29" s="33"/>
       <c r="C29" s="4" t="s">
         <v>75</v>
       </c>
@@ -1517,7 +1567,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A30" s="11"/>
+      <c r="A30" s="22"/>
       <c r="B30" s="2" t="s">
         <v>37</v>
       </c>
@@ -1534,7 +1584,7 @@
       <c r="G30" s="2"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A31" s="11"/>
+      <c r="A31" s="22"/>
       <c r="B31" s="2" t="s">
         <v>38</v>
       </c>
@@ -1551,7 +1601,7 @@
       <c r="G31" s="2"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A32" s="11"/>
+      <c r="A32" s="22"/>
       <c r="B32" s="2" t="s">
         <v>39</v>
       </c>
@@ -1568,7 +1618,7 @@
       <c r="G32" s="2"/>
     </row>
     <row r="33" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A33" s="12"/>
+      <c r="A33" s="26"/>
       <c r="B33" s="3" t="s">
         <v>40</v>
       </c>
@@ -1585,10 +1635,10 @@
       <c r="G33" s="3"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A34" s="23" t="s">
+      <c r="A34" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="B34" s="21" t="s">
+      <c r="B34" s="27" t="s">
         <v>65</v>
       </c>
       <c r="C34" s="5" t="s">
@@ -1608,9 +1658,9 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A35" s="23"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="11" t="s">
+      <c r="A35" s="24"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="22" t="s">
         <v>67</v>
       </c>
       <c r="D35" s="2" t="s">
@@ -1627,9 +1677,9 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A36" s="23"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="11"/>
+      <c r="A36" s="24"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="22"/>
       <c r="D36" s="2" t="s">
         <v>61</v>
       </c>
@@ -1642,9 +1692,9 @@
       <c r="G36" s="2"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A37" s="23"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="11" t="s">
+      <c r="A37" s="24"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="22" t="s">
         <v>66</v>
       </c>
       <c r="D37" s="2" t="s">
@@ -1659,9 +1709,9 @@
       <c r="G37" s="2"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A38" s="23"/>
-      <c r="B38" s="22"/>
-      <c r="C38" s="11"/>
+      <c r="A38" s="24"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="22"/>
       <c r="D38" s="2" t="s">
         <v>63</v>
       </c>
@@ -1674,11 +1724,11 @@
       <c r="G38" s="2"/>
     </row>
     <row r="39" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="23"/>
-      <c r="B39" s="15" t="s">
+      <c r="A39" s="24"/>
+      <c r="B39" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="C39" s="15" t="s">
+      <c r="C39" s="20" t="s">
         <v>56</v>
       </c>
       <c r="D39" s="2" t="s">
@@ -1693,9 +1743,9 @@
       <c r="G39" s="2"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A40" s="23"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
+      <c r="A40" s="24"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
       <c r="D40" s="2" t="s">
         <v>48</v>
       </c>
@@ -1708,9 +1758,9 @@
       <c r="G40" s="2"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A41" s="23"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="15" t="s">
+      <c r="A41" s="24"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="20" t="s">
         <v>57</v>
       </c>
       <c r="D41" s="2" t="s">
@@ -1725,9 +1775,9 @@
       <c r="G41" s="2"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A42" s="23"/>
-      <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
+      <c r="A42" s="24"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="20"/>
       <c r="D42" s="2" t="s">
         <v>49</v>
       </c>
@@ -1740,8 +1790,8 @@
       <c r="G42" s="2"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A43" s="23"/>
-      <c r="B43" s="11" t="s">
+      <c r="A43" s="24"/>
+      <c r="B43" s="22" t="s">
         <v>37</v>
       </c>
       <c r="C43" s="2" t="s">
@@ -1759,8 +1809,8 @@
       <c r="G43" s="2"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A44" s="23"/>
-      <c r="B44" s="11"/>
+      <c r="A44" s="24"/>
+      <c r="B44" s="22"/>
       <c r="C44" s="2" t="s">
         <v>68</v>
       </c>
@@ -1776,7 +1826,7 @@
       <c r="G44" s="2"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A45" s="23"/>
+      <c r="A45" s="24"/>
       <c r="B45" s="2" t="s">
         <v>38</v>
       </c>
@@ -1793,7 +1843,7 @@
       <c r="G45" s="2"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A46" s="23"/>
+      <c r="A46" s="24"/>
       <c r="B46" s="2" t="s">
         <v>39</v>
       </c>
@@ -1810,7 +1860,7 @@
       <c r="G46" s="2"/>
     </row>
     <row r="47" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A47" s="24"/>
+      <c r="A47" s="25"/>
       <c r="B47" s="3" t="s">
         <v>70</v>
       </c>
@@ -1827,10 +1877,10 @@
       <c r="G47" s="3"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A48" s="33" t="s">
+      <c r="A48" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="B48" s="14" t="s">
+      <c r="B48" s="19" t="s">
         <v>97</v>
       </c>
       <c r="C48" s="7" t="s">
@@ -1846,16 +1896,16 @@
         <v>45</v>
       </c>
       <c r="G48" s="7"/>
-      <c r="H48" s="28">
+      <c r="H48" s="14">
         <v>5</v>
       </c>
-      <c r="I48" s="29"/>
-      <c r="J48" s="29"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="15"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A49" s="23"/>
-      <c r="B49" s="15"/>
-      <c r="C49" s="11" t="s">
+      <c r="A49" s="24"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="22" t="s">
         <v>87</v>
       </c>
       <c r="D49" s="2" t="s">
@@ -1873,9 +1923,9 @@
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A50" s="23"/>
-      <c r="B50" s="15"/>
-      <c r="C50" s="11"/>
+      <c r="A50" s="24"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="22"/>
       <c r="D50" s="2" t="s">
         <v>85</v>
       </c>
@@ -1891,8 +1941,8 @@
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A51" s="23"/>
-      <c r="B51" s="15"/>
+      <c r="A51" s="24"/>
+      <c r="B51" s="20"/>
       <c r="C51" s="2" t="s">
         <v>91</v>
       </c>
@@ -1911,9 +1961,9 @@
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A52" s="23"/>
-      <c r="B52" s="15"/>
-      <c r="C52" s="11" t="s">
+      <c r="A52" s="24"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="22" t="s">
         <v>92</v>
       </c>
       <c r="D52" s="2" t="s">
@@ -1933,9 +1983,9 @@
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A53" s="23"/>
-      <c r="B53" s="15"/>
-      <c r="C53" s="11"/>
+      <c r="A53" s="24"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="22"/>
       <c r="D53" s="2" t="s">
         <v>89</v>
       </c>
@@ -1953,9 +2003,9 @@
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A54" s="23"/>
-      <c r="B54" s="15"/>
-      <c r="C54" s="11" t="s">
+      <c r="A54" s="24"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="22" t="s">
         <v>94</v>
       </c>
       <c r="D54" s="2" t="s">
@@ -1973,9 +2023,9 @@
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A55" s="23"/>
-      <c r="B55" s="15"/>
-      <c r="C55" s="11"/>
+      <c r="A55" s="24"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="22"/>
       <c r="D55" s="2" t="s">
         <v>95</v>
       </c>
@@ -1995,8 +2045,8 @@
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A56" s="23"/>
-      <c r="B56" s="11" t="s">
+      <c r="A56" s="24"/>
+      <c r="B56" s="22" t="s">
         <v>102</v>
       </c>
       <c r="C56" s="2" t="s">
@@ -2017,9 +2067,9 @@
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A57" s="23"/>
-      <c r="B57" s="11"/>
-      <c r="C57" s="11" t="s">
+      <c r="A57" s="24"/>
+      <c r="B57" s="22"/>
+      <c r="C57" s="22" t="s">
         <v>100</v>
       </c>
       <c r="D57" s="2" t="s">
@@ -2037,9 +2087,9 @@
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A58" s="23"/>
-      <c r="B58" s="11"/>
-      <c r="C58" s="11"/>
+      <c r="A58" s="24"/>
+      <c r="B58" s="22"/>
+      <c r="C58" s="22"/>
       <c r="D58" s="2" t="s">
         <v>42</v>
       </c>
@@ -2057,9 +2107,9 @@
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A59" s="23"/>
-      <c r="B59" s="11"/>
-      <c r="C59" s="11"/>
+      <c r="A59" s="24"/>
+      <c r="B59" s="22"/>
+      <c r="C59" s="22"/>
       <c r="D59" s="2" t="s">
         <v>43</v>
       </c>
@@ -2077,8 +2127,8 @@
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A60" s="23"/>
-      <c r="B60" s="11"/>
+      <c r="A60" s="24"/>
+      <c r="B60" s="22"/>
       <c r="C60" s="8" t="s">
         <v>101</v>
       </c>
@@ -2097,8 +2147,8 @@
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A61" s="23"/>
-      <c r="B61" s="11"/>
+      <c r="A61" s="24"/>
+      <c r="B61" s="22"/>
       <c r="C61" s="8" t="s">
         <v>103</v>
       </c>
@@ -2119,8 +2169,8 @@
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A62" s="23"/>
-      <c r="B62" s="11"/>
+      <c r="A62" s="24"/>
+      <c r="B62" s="22"/>
       <c r="C62" s="2" t="s">
         <v>14</v>
       </c>
@@ -2145,8 +2195,8 @@
       </c>
     </row>
     <row r="63" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A63" s="24"/>
-      <c r="B63" s="26" t="s">
+      <c r="A63" s="25"/>
+      <c r="B63" s="12" t="s">
         <v>115</v>
       </c>
       <c r="C63" s="10"/>
@@ -2159,23 +2209,23 @@
       <c r="F63" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="G63" s="27"/>
-      <c r="H63" s="30">
+      <c r="G63" s="13"/>
+      <c r="H63" s="16">
         <v>2</v>
       </c>
-      <c r="I63" s="31">
+      <c r="I63" s="17">
         <v>2</v>
       </c>
-      <c r="J63" s="31">
+      <c r="J63" s="17">
         <f>I55+I62+I63</f>
         <v>84</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A64" s="13" t="s">
+      <c r="A64" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="B64" s="25" t="s">
+      <c r="B64" s="11" t="s">
         <v>65</v>
       </c>
       <c r="C64" s="7"/>
@@ -2191,13 +2241,13 @@
       <c r="G64" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="H64" s="32">
+      <c r="H64" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A65" s="12"/>
-      <c r="B65" s="26" t="s">
+      <c r="A65" s="26"/>
+      <c r="B65" s="12" t="s">
         <v>115</v>
       </c>
       <c r="C65" s="10"/>
@@ -2211,23 +2261,23 @@
         <v>113</v>
       </c>
       <c r="G65" s="3"/>
-      <c r="H65" s="30">
+      <c r="H65" s="16">
         <v>2</v>
       </c>
-      <c r="I65" s="31"/>
-      <c r="J65" s="31">
+      <c r="I65" s="17"/>
+      <c r="J65" s="17">
         <f>H64+H65</f>
         <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A66" s="33" t="s">
+      <c r="A66" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="B66" s="14" t="s">
+      <c r="B66" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="C66" s="13" t="s">
+      <c r="C66" s="21" t="s">
         <v>126</v>
       </c>
       <c r="D66" s="7" t="s">
@@ -2240,14 +2290,14 @@
         <v>7</v>
       </c>
       <c r="G66" s="7"/>
-      <c r="H66" s="32">
+      <c r="H66" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A67" s="23"/>
-      <c r="B67" s="15"/>
-      <c r="C67" s="11"/>
+      <c r="A67" s="24"/>
+      <c r="B67" s="20"/>
+      <c r="C67" s="22"/>
       <c r="D67" s="2" t="s">
         <v>119</v>
       </c>
@@ -2258,14 +2308,14 @@
         <v>7</v>
       </c>
       <c r="G67" s="2"/>
-      <c r="H67" s="32">
+      <c r="H67" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A68" s="23"/>
-      <c r="B68" s="15"/>
-      <c r="C68" s="11"/>
+      <c r="A68" s="24"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="22"/>
       <c r="D68" s="2" t="s">
         <v>110</v>
       </c>
@@ -2276,14 +2326,14 @@
         <v>7</v>
       </c>
       <c r="G68" s="2"/>
-      <c r="H68" s="32">
+      <c r="H68" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A69" s="23"/>
-      <c r="B69" s="15"/>
-      <c r="C69" s="11"/>
+      <c r="A69" s="24"/>
+      <c r="B69" s="20"/>
+      <c r="C69" s="22"/>
       <c r="D69" s="2" t="s">
         <v>120</v>
       </c>
@@ -2296,14 +2346,14 @@
       <c r="G69" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="H69" s="32">
+      <c r="H69" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A70" s="23"/>
-      <c r="B70" s="15"/>
-      <c r="C70" s="11"/>
+      <c r="A70" s="24"/>
+      <c r="B70" s="20"/>
+      <c r="C70" s="22"/>
       <c r="D70" s="2" t="s">
         <v>121</v>
       </c>
@@ -2316,13 +2366,13 @@
       <c r="G70" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="H70" s="32">
+      <c r="H70" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A71" s="23"/>
-      <c r="B71" s="15"/>
+      <c r="A71" s="24"/>
+      <c r="B71" s="20"/>
       <c r="C71" s="8" t="s">
         <v>127</v>
       </c>
@@ -2338,7 +2388,7 @@
       <c r="G71" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="H71" s="32">
+      <c r="H71" s="18">
         <v>1</v>
       </c>
       <c r="I71">
@@ -2347,8 +2397,8 @@
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A72" s="23"/>
-      <c r="B72" s="15" t="s">
+      <c r="A72" s="24"/>
+      <c r="B72" s="20" t="s">
         <v>65</v>
       </c>
       <c r="C72" s="9" t="s">
@@ -2366,76 +2416,197 @@
       <c r="G72" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="H72" s="32">
+      <c r="H72" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A73" s="23"/>
-      <c r="B73" s="15"/>
+      <c r="A73" s="24"/>
+      <c r="B73" s="20"/>
       <c r="C73" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D73" s="34" t="s">
+      <c r="D73" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E73" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="F73" s="34" t="s">
+      <c r="E73" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F73" s="2" t="s">
         <v>59</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="H73" s="32">
+      <c r="H73" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A74" s="24"/>
-      <c r="B74" s="26" t="s">
+      <c r="B74" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="C74" s="10"/>
-      <c r="D74" s="3" t="s">
+      <c r="C74" s="35"/>
+      <c r="D74" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="E74" s="3" t="s">
+      <c r="E74" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="F74" s="3" t="s">
+      <c r="F74" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="G74" s="3"/>
-      <c r="H74" s="30">
+      <c r="G74" s="36"/>
+      <c r="H74" s="16">
         <v>2</v>
       </c>
-      <c r="I74" s="31">
+      <c r="I74" s="17">
         <f>SUM(H72:H74)</f>
         <v>4</v>
       </c>
-      <c r="J74" s="31">
+      <c r="J74" s="17">
         <f>I71+I74</f>
         <v>10</v>
       </c>
     </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A75" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="B75" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="C75" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G75" s="2"/>
+      <c r="H75" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A76" s="24"/>
+      <c r="B76" s="41"/>
+      <c r="C76" s="40"/>
+      <c r="D76" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G76" s="2"/>
+      <c r="H76" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A77" s="24"/>
+      <c r="B77" s="41"/>
+      <c r="C77" s="40"/>
+      <c r="D77" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G77" s="2"/>
+      <c r="H77" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A78" s="24"/>
+      <c r="B78" s="41"/>
+      <c r="C78" s="27"/>
+      <c r="D78" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H78" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A79" s="24"/>
+      <c r="B79" s="30"/>
+      <c r="C79" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G79" s="2"/>
+      <c r="H79" s="42">
+        <v>8</v>
+      </c>
+      <c r="I79">
+        <f>SUM(H75:H79)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A80" s="25"/>
+      <c r="B80" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C80" s="38"/>
+      <c r="D80" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G80" s="3"/>
+      <c r="H80" s="43">
+        <v>2</v>
+      </c>
+      <c r="I80" s="17">
+        <f>H80</f>
+        <v>2</v>
+      </c>
+      <c r="J80" s="17">
+        <f>I80+I79</f>
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="B66:B71"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="C66:C70"/>
-    <mergeCell ref="A66:A74"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="A48:A63"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="A34:A47"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="B43:B44"/>
+  <mergeCells count="36">
+    <mergeCell ref="A75:A80"/>
+    <mergeCell ref="B75:B79"/>
+    <mergeCell ref="C75:C78"/>
     <mergeCell ref="B17:B21"/>
     <mergeCell ref="C18:C21"/>
     <mergeCell ref="A2:A33"/>
@@ -2449,17 +2620,31 @@
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="B22:B29"/>
+    <mergeCell ref="A48:A63"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="A34:A47"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="B43:B44"/>
     <mergeCell ref="C57:C59"/>
     <mergeCell ref="B56:B62"/>
     <mergeCell ref="C49:C50"/>
     <mergeCell ref="C52:C53"/>
     <mergeCell ref="C54:C55"/>
     <mergeCell ref="B48:B55"/>
+    <mergeCell ref="B66:B71"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="C66:C70"/>
+    <mergeCell ref="A66:A74"/>
+    <mergeCell ref="A64:A65"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="I55 I62 I71 I74" formulaRange="1"/>
+    <ignoredError sqref="I55 I62 I71 I74 I79" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/unit interface.xlsx
+++ b/unit interface.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olive\Desktop\pc project\rlpc\AX08-PC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F7EFF5-69B5-4BD6-948F-797284262094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9656EF4F-6361-4945-B172-A838FF58BE53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -671,7 +671,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -703,75 +703,73 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1056,7 +1054,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A66" sqref="A66:A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1066,7 +1064,7 @@
     <col min="3" max="3" width="15.46484375" customWidth="1"/>
     <col min="4" max="4" width="20.3984375" customWidth="1"/>
     <col min="5" max="5" width="8.46484375" customWidth="1"/>
-    <col min="6" max="6" width="10.9296875" customWidth="1"/>
+    <col min="6" max="6" width="11.46484375" customWidth="1"/>
     <col min="7" max="7" width="77.53125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1103,10 +1101,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="36" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -1126,9 +1124,9 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A3" s="22"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="22" t="s">
+      <c r="A3" s="33"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="33" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -1143,9 +1141,9 @@
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A4" s="22"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="22"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="33"/>
       <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
@@ -1158,9 +1156,9 @@
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A5" s="22"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="22"/>
+      <c r="A5" s="33"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="33"/>
       <c r="D5" s="2" t="s">
         <v>10</v>
       </c>
@@ -1173,9 +1171,9 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A6" s="22"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="22"/>
+      <c r="A6" s="33"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="33"/>
       <c r="D6" s="2" t="s">
         <v>11</v>
       </c>
@@ -1188,8 +1186,8 @@
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A7" s="22"/>
-      <c r="B7" s="20" t="s">
+      <c r="A7" s="33"/>
+      <c r="B7" s="32" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1207,9 +1205,9 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A8" s="22"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="22" t="s">
+      <c r="A8" s="33"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="33" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -1224,9 +1222,9 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A9" s="22"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="22"/>
+      <c r="A9" s="33"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="33"/>
       <c r="D9" s="2" t="s">
         <v>22</v>
       </c>
@@ -1239,9 +1237,9 @@
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A10" s="22"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="22"/>
+      <c r="A10" s="33"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="33"/>
       <c r="D10" s="2" t="s">
         <v>23</v>
       </c>
@@ -1254,9 +1252,9 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A11" s="22"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="22"/>
+      <c r="A11" s="33"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="33"/>
       <c r="D11" s="2" t="s">
         <v>24</v>
       </c>
@@ -1269,8 +1267,8 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A12" s="22"/>
-      <c r="B12" s="20" t="s">
+      <c r="A12" s="33"/>
+      <c r="B12" s="32" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1288,9 +1286,9 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A13" s="22"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="22" t="s">
+      <c r="A13" s="33"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="33" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -1305,9 +1303,9 @@
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A14" s="22"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="22"/>
+      <c r="A14" s="33"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="33"/>
       <c r="D14" s="2" t="s">
         <v>28</v>
       </c>
@@ -1320,9 +1318,9 @@
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A15" s="22"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="22"/>
+      <c r="A15" s="33"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="33"/>
       <c r="D15" s="2" t="s">
         <v>29</v>
       </c>
@@ -1335,9 +1333,9 @@
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A16" s="22"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="22"/>
+      <c r="A16" s="33"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="33"/>
       <c r="D16" s="2" t="s">
         <v>30</v>
       </c>
@@ -1350,8 +1348,8 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A17" s="22"/>
-      <c r="B17" s="20" t="s">
+      <c r="A17" s="33"/>
+      <c r="B17" s="32" t="s">
         <v>31</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -1369,9 +1367,9 @@
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A18" s="22"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="22" t="s">
+      <c r="A18" s="33"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="33" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -1386,9 +1384,9 @@
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A19" s="22"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="22"/>
+      <c r="A19" s="33"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="33"/>
       <c r="D19" s="2" t="s">
         <v>34</v>
       </c>
@@ -1401,9 +1399,9 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A20" s="22"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="22"/>
+      <c r="A20" s="33"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="33"/>
       <c r="D20" s="2" t="s">
         <v>35</v>
       </c>
@@ -1416,9 +1414,9 @@
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A21" s="22"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="22"/>
+      <c r="A21" s="33"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="33"/>
       <c r="D21" s="2" t="s">
         <v>36</v>
       </c>
@@ -1431,11 +1429,11 @@
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="22"/>
-      <c r="B22" s="31" t="s">
+      <c r="A22" s="33"/>
+      <c r="B22" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="C22" s="26" t="s">
         <v>56</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -1450,9 +1448,9 @@
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A23" s="22"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="30"/>
+      <c r="A23" s="33"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="28"/>
       <c r="D23" s="2" t="s">
         <v>48</v>
       </c>
@@ -1465,9 +1463,9 @@
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A24" s="22"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="29" t="s">
+      <c r="A24" s="33"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="26" t="s">
         <v>57</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -1482,9 +1480,9 @@
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A25" s="22"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="30"/>
+      <c r="A25" s="33"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="28"/>
       <c r="D25" s="2" t="s">
         <v>49</v>
       </c>
@@ -1497,9 +1495,9 @@
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A26" s="22"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="29" t="s">
+      <c r="A26" s="33"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="26" t="s">
         <v>58</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -1514,9 +1512,9 @@
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A27" s="22"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="30"/>
+      <c r="A27" s="33"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="28"/>
       <c r="D27" s="2" t="s">
         <v>54</v>
       </c>
@@ -1529,8 +1527,8 @@
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A28" s="22"/>
-      <c r="B28" s="32"/>
+      <c r="A28" s="33"/>
+      <c r="B28" s="38"/>
       <c r="C28" s="4" t="s">
         <v>74</v>
       </c>
@@ -1548,8 +1546,8 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A29" s="22"/>
-      <c r="B29" s="33"/>
+      <c r="A29" s="33"/>
+      <c r="B29" s="39"/>
       <c r="C29" s="4" t="s">
         <v>75</v>
       </c>
@@ -1567,7 +1565,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A30" s="22"/>
+      <c r="A30" s="33"/>
       <c r="B30" s="2" t="s">
         <v>37</v>
       </c>
@@ -1584,7 +1582,7 @@
       <c r="G30" s="2"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A31" s="22"/>
+      <c r="A31" s="33"/>
       <c r="B31" s="2" t="s">
         <v>38</v>
       </c>
@@ -1601,7 +1599,7 @@
       <c r="G31" s="2"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A32" s="22"/>
+      <c r="A32" s="33"/>
       <c r="B32" s="2" t="s">
         <v>39</v>
       </c>
@@ -1618,7 +1616,7 @@
       <c r="G32" s="2"/>
     </row>
     <row r="33" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A33" s="26"/>
+      <c r="A33" s="35"/>
       <c r="B33" s="3" t="s">
         <v>40</v>
       </c>
@@ -1638,7 +1636,7 @@
       <c r="A34" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="B34" s="27" t="s">
+      <c r="B34" s="31" t="s">
         <v>65</v>
       </c>
       <c r="C34" s="5" t="s">
@@ -1659,8 +1657,8 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A35" s="24"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="22" t="s">
+      <c r="B35" s="41"/>
+      <c r="C35" s="33" t="s">
         <v>67</v>
       </c>
       <c r="D35" s="2" t="s">
@@ -1678,8 +1676,8 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A36" s="24"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="22"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="33"/>
       <c r="D36" s="2" t="s">
         <v>61</v>
       </c>
@@ -1693,8 +1691,8 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A37" s="24"/>
-      <c r="B37" s="28"/>
-      <c r="C37" s="22" t="s">
+      <c r="B37" s="41"/>
+      <c r="C37" s="33" t="s">
         <v>66</v>
       </c>
       <c r="D37" s="2" t="s">
@@ -1710,8 +1708,8 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A38" s="24"/>
-      <c r="B38" s="28"/>
-      <c r="C38" s="22"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="33"/>
       <c r="D38" s="2" t="s">
         <v>63</v>
       </c>
@@ -1725,10 +1723,10 @@
     </row>
     <row r="39" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="24"/>
-      <c r="B39" s="20" t="s">
+      <c r="B39" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="C39" s="20" t="s">
+      <c r="C39" s="32" t="s">
         <v>56</v>
       </c>
       <c r="D39" s="2" t="s">
@@ -1744,8 +1742,8 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A40" s="24"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="20"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="32"/>
       <c r="D40" s="2" t="s">
         <v>48</v>
       </c>
@@ -1759,8 +1757,8 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A41" s="24"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="20" t="s">
+      <c r="B41" s="32"/>
+      <c r="C41" s="32" t="s">
         <v>57</v>
       </c>
       <c r="D41" s="2" t="s">
@@ -1776,8 +1774,8 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A42" s="24"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="20"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="32"/>
       <c r="D42" s="2" t="s">
         <v>49</v>
       </c>
@@ -1791,7 +1789,7 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A43" s="24"/>
-      <c r="B43" s="22" t="s">
+      <c r="B43" s="33" t="s">
         <v>37</v>
       </c>
       <c r="C43" s="2" t="s">
@@ -1810,7 +1808,7 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A44" s="24"/>
-      <c r="B44" s="22"/>
+      <c r="B44" s="33"/>
       <c r="C44" s="2" t="s">
         <v>68</v>
       </c>
@@ -1877,10 +1875,10 @@
       <c r="G47" s="3"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A48" s="23" t="s">
+      <c r="A48" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="B48" s="19" t="s">
+      <c r="B48" s="36" t="s">
         <v>97</v>
       </c>
       <c r="C48" s="7" t="s">
@@ -1904,8 +1902,8 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A49" s="24"/>
-      <c r="B49" s="20"/>
-      <c r="C49" s="22" t="s">
+      <c r="B49" s="32"/>
+      <c r="C49" s="33" t="s">
         <v>87</v>
       </c>
       <c r="D49" s="2" t="s">
@@ -1924,8 +1922,8 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A50" s="24"/>
-      <c r="B50" s="20"/>
-      <c r="C50" s="22"/>
+      <c r="B50" s="32"/>
+      <c r="C50" s="33"/>
       <c r="D50" s="2" t="s">
         <v>85</v>
       </c>
@@ -1942,7 +1940,7 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A51" s="24"/>
-      <c r="B51" s="20"/>
+      <c r="B51" s="32"/>
       <c r="C51" s="2" t="s">
         <v>91</v>
       </c>
@@ -1962,8 +1960,8 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A52" s="24"/>
-      <c r="B52" s="20"/>
-      <c r="C52" s="22" t="s">
+      <c r="B52" s="32"/>
+      <c r="C52" s="33" t="s">
         <v>92</v>
       </c>
       <c r="D52" s="2" t="s">
@@ -1984,8 +1982,8 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A53" s="24"/>
-      <c r="B53" s="20"/>
-      <c r="C53" s="22"/>
+      <c r="B53" s="32"/>
+      <c r="C53" s="33"/>
       <c r="D53" s="2" t="s">
         <v>89</v>
       </c>
@@ -2004,8 +2002,8 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A54" s="24"/>
-      <c r="B54" s="20"/>
-      <c r="C54" s="22" t="s">
+      <c r="B54" s="32"/>
+      <c r="C54" s="33" t="s">
         <v>94</v>
       </c>
       <c r="D54" s="2" t="s">
@@ -2024,8 +2022,8 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A55" s="24"/>
-      <c r="B55" s="20"/>
-      <c r="C55" s="22"/>
+      <c r="B55" s="32"/>
+      <c r="C55" s="33"/>
       <c r="D55" s="2" t="s">
         <v>95</v>
       </c>
@@ -2046,7 +2044,7 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A56" s="24"/>
-      <c r="B56" s="22" t="s">
+      <c r="B56" s="33" t="s">
         <v>102</v>
       </c>
       <c r="C56" s="2" t="s">
@@ -2068,8 +2066,8 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A57" s="24"/>
-      <c r="B57" s="22"/>
-      <c r="C57" s="22" t="s">
+      <c r="B57" s="33"/>
+      <c r="C57" s="33" t="s">
         <v>100</v>
       </c>
       <c r="D57" s="2" t="s">
@@ -2088,8 +2086,8 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A58" s="24"/>
-      <c r="B58" s="22"/>
-      <c r="C58" s="22"/>
+      <c r="B58" s="33"/>
+      <c r="C58" s="33"/>
       <c r="D58" s="2" t="s">
         <v>42</v>
       </c>
@@ -2108,8 +2106,8 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A59" s="24"/>
-      <c r="B59" s="22"/>
-      <c r="C59" s="22"/>
+      <c r="B59" s="33"/>
+      <c r="C59" s="33"/>
       <c r="D59" s="2" t="s">
         <v>43</v>
       </c>
@@ -2128,7 +2126,7 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A60" s="24"/>
-      <c r="B60" s="22"/>
+      <c r="B60" s="33"/>
       <c r="C60" s="8" t="s">
         <v>101</v>
       </c>
@@ -2148,7 +2146,7 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A61" s="24"/>
-      <c r="B61" s="22"/>
+      <c r="B61" s="33"/>
       <c r="C61" s="8" t="s">
         <v>103</v>
       </c>
@@ -2170,7 +2168,7 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A62" s="24"/>
-      <c r="B62" s="22"/>
+      <c r="B62" s="33"/>
       <c r="C62" s="2" t="s">
         <v>14</v>
       </c>
@@ -2222,7 +2220,7 @@
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A64" s="21" t="s">
+      <c r="A64" s="34" t="s">
         <v>111</v>
       </c>
       <c r="B64" s="11" t="s">
@@ -2246,7 +2244,7 @@
       </c>
     </row>
     <row r="65" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A65" s="26"/>
+      <c r="A65" s="35"/>
       <c r="B65" s="12" t="s">
         <v>115</v>
       </c>
@@ -2271,13 +2269,13 @@
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A66" s="23" t="s">
+      <c r="A66" s="40" t="s">
         <v>117</v>
       </c>
-      <c r="B66" s="19" t="s">
+      <c r="B66" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="C66" s="21" t="s">
+      <c r="C66" s="34" t="s">
         <v>126</v>
       </c>
       <c r="D66" s="7" t="s">
@@ -2296,8 +2294,8 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A67" s="24"/>
-      <c r="B67" s="20"/>
-      <c r="C67" s="22"/>
+      <c r="B67" s="32"/>
+      <c r="C67" s="33"/>
       <c r="D67" s="2" t="s">
         <v>119</v>
       </c>
@@ -2314,8 +2312,8 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A68" s="24"/>
-      <c r="B68" s="20"/>
-      <c r="C68" s="22"/>
+      <c r="B68" s="32"/>
+      <c r="C68" s="33"/>
       <c r="D68" s="2" t="s">
         <v>110</v>
       </c>
@@ -2332,8 +2330,8 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A69" s="24"/>
-      <c r="B69" s="20"/>
-      <c r="C69" s="22"/>
+      <c r="B69" s="32"/>
+      <c r="C69" s="33"/>
       <c r="D69" s="2" t="s">
         <v>120</v>
       </c>
@@ -2352,8 +2350,8 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A70" s="24"/>
-      <c r="B70" s="20"/>
-      <c r="C70" s="22"/>
+      <c r="B70" s="32"/>
+      <c r="C70" s="33"/>
       <c r="D70" s="2" t="s">
         <v>121</v>
       </c>
@@ -2372,7 +2370,7 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A71" s="24"/>
-      <c r="B71" s="20"/>
+      <c r="B71" s="32"/>
       <c r="C71" s="8" t="s">
         <v>127</v>
       </c>
@@ -2398,7 +2396,7 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A72" s="24"/>
-      <c r="B72" s="20" t="s">
+      <c r="B72" s="32" t="s">
         <v>65</v>
       </c>
       <c r="C72" s="9" t="s">
@@ -2422,7 +2420,7 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A73" s="24"/>
-      <c r="B73" s="20"/>
+      <c r="B73" s="32"/>
       <c r="C73" s="2" t="s">
         <v>128</v>
       </c>
@@ -2444,20 +2442,20 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A74" s="24"/>
-      <c r="B74" s="34" t="s">
+      <c r="B74" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="C74" s="35"/>
-      <c r="D74" s="36" t="s">
+      <c r="C74" s="20"/>
+      <c r="D74" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="E74" s="36" t="s">
+      <c r="E74" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="F74" s="36" t="s">
+      <c r="F74" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="G74" s="36"/>
+      <c r="G74" s="21"/>
       <c r="H74" s="16">
         <v>2</v>
       </c>
@@ -2471,13 +2469,13 @@
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A75" s="37" t="s">
+      <c r="A75" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="B75" s="29" t="s">
+      <c r="B75" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="C75" s="39" t="s">
+      <c r="C75" s="29" t="s">
         <v>65</v>
       </c>
       <c r="D75" s="2" t="s">
@@ -2490,14 +2488,14 @@
         <v>59</v>
       </c>
       <c r="G75" s="2"/>
-      <c r="H75" s="42">
+      <c r="H75" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A76" s="24"/>
-      <c r="B76" s="41"/>
-      <c r="C76" s="40"/>
+      <c r="B76" s="27"/>
+      <c r="C76" s="30"/>
       <c r="D76" s="2" t="s">
         <v>136</v>
       </c>
@@ -2508,14 +2506,14 @@
         <v>59</v>
       </c>
       <c r="G76" s="2"/>
-      <c r="H76" s="42">
+      <c r="H76" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A77" s="24"/>
-      <c r="B77" s="41"/>
-      <c r="C77" s="40"/>
+      <c r="B77" s="27"/>
+      <c r="C77" s="30"/>
       <c r="D77" s="2" t="s">
         <v>137</v>
       </c>
@@ -2526,14 +2524,14 @@
         <v>59</v>
       </c>
       <c r="G77" s="2"/>
-      <c r="H77" s="42">
+      <c r="H77" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A78" s="24"/>
-      <c r="B78" s="41"/>
-      <c r="C78" s="27"/>
+      <c r="B78" s="27"/>
+      <c r="C78" s="31"/>
       <c r="D78" s="2" t="s">
         <v>110</v>
       </c>
@@ -2546,13 +2544,13 @@
       <c r="G78" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="H78" s="42">
+      <c r="H78" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A79" s="24"/>
-      <c r="B79" s="30"/>
+      <c r="B79" s="28"/>
       <c r="C79" s="8" t="s">
         <v>45</v>
       </c>
@@ -2566,7 +2564,7 @@
         <v>45</v>
       </c>
       <c r="G79" s="2"/>
-      <c r="H79" s="42">
+      <c r="H79" s="18">
         <v>8</v>
       </c>
       <c r="I79">
@@ -2579,7 +2577,7 @@
       <c r="B80" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="C80" s="38"/>
+      <c r="C80" s="22"/>
       <c r="D80" s="3" t="s">
         <v>114</v>
       </c>
@@ -2590,7 +2588,7 @@
         <v>113</v>
       </c>
       <c r="G80" s="3"/>
-      <c r="H80" s="43">
+      <c r="H80" s="16">
         <v>2</v>
       </c>
       <c r="I80" s="17">
@@ -2604,6 +2602,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="B66:B71"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="C66:C70"/>
+    <mergeCell ref="A66:A74"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A48:A63"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="A34:A47"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="B56:B62"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="B48:B55"/>
     <mergeCell ref="A75:A80"/>
     <mergeCell ref="B75:B79"/>
     <mergeCell ref="C75:C78"/>
@@ -2620,26 +2638,6 @@
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="B22:B29"/>
-    <mergeCell ref="A48:A63"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="A34:A47"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="B56:B62"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="B48:B55"/>
-    <mergeCell ref="B66:B71"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="C66:C70"/>
-    <mergeCell ref="A66:A74"/>
-    <mergeCell ref="A64:A65"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
